--- a/Liste Auxiliaires envoyée au HCP.xlsx
+++ b/Liste Auxiliaires envoyée au HCP.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdelilah\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\gestionCourrier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8CAD512-D4B5-4B51-AF3B-AE978128F53F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10560"/>
   </bookViews>
   <sheets>
     <sheet name="AUXILIAIRES" sheetId="4" r:id="rId1"/>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6808" uniqueCount="3245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6662" uniqueCount="3245">
   <si>
     <t>Région_Fr</t>
   </si>
@@ -9787,7 +9786,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -9957,7 +9956,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
@@ -10024,9 +10023,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -10064,9 +10063,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -10101,7 +10100,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -10136,7 +10135,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -10309,31 +10308,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L600"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="F141" sqref="F141"/>
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="Q169" sqref="Q169"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.26953125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="34.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7265625" style="6" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="18.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.36328125" style="6" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="33.54296875" style="6" customWidth="1"/>
-    <col min="7" max="7" width="23.54296875" style="6" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="21.7265625" style="6" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="45.54296875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="16.6328125" style="6" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="14.26953125" style="10" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="21.453125" style="26" hidden="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.7265625" style="6"/>
+    <col min="1" max="1" width="36.28515625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="6" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" style="6" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="33.5703125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" style="6" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" style="6" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="45.5703125" style="9" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" style="6" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="10" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="21.42578125" style="26" hidden="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.7109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -10371,7 +10370,7 @@
         <v>2489</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>2488</v>
       </c>
@@ -10409,7 +10408,7 @@
         <v>2587</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>2488</v>
       </c>
@@ -10447,7 +10446,7 @@
         <v>2659</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>2488</v>
       </c>
@@ -10457,8 +10456,8 @@
       <c r="C4" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>10</v>
+      <c r="D4" s="12">
+        <v>7</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>11</v>
@@ -10485,7 +10484,7 @@
         <v>2564</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>2488</v>
       </c>
@@ -10495,8 +10494,8 @@
       <c r="C5" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>10</v>
+      <c r="D5" s="12">
+        <v>7</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>11</v>
@@ -10523,7 +10522,7 @@
         <v>2678</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>2488</v>
       </c>
@@ -10533,8 +10532,8 @@
       <c r="C6" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>10</v>
+      <c r="D6" s="12">
+        <v>7</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>11</v>
@@ -10561,7 +10560,7 @@
         <v>2662</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>2488</v>
       </c>
@@ -10571,8 +10570,8 @@
       <c r="C7" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>10</v>
+      <c r="D7" s="12">
+        <v>7</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>11</v>
@@ -10599,7 +10598,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>2488</v>
       </c>
@@ -10609,8 +10608,8 @@
       <c r="C8" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>10</v>
+      <c r="D8" s="12">
+        <v>7</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>11</v>
@@ -10637,7 +10636,7 @@
         <v>2656</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>2488</v>
       </c>
@@ -10647,8 +10646,8 @@
       <c r="C9" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>10</v>
+      <c r="D9" s="12">
+        <v>7</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>11</v>
@@ -10675,7 +10674,7 @@
         <v>2552</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>2488</v>
       </c>
@@ -10685,8 +10684,8 @@
       <c r="C10" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>10</v>
+      <c r="D10" s="12">
+        <v>7</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>11</v>
@@ -10713,7 +10712,7 @@
         <v>2584</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>2488</v>
       </c>
@@ -10723,8 +10722,8 @@
       <c r="C11" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>10</v>
+      <c r="D11" s="12">
+        <v>7</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>11</v>
@@ -10751,7 +10750,7 @@
         <v>2590</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>2488</v>
       </c>
@@ -10761,8 +10760,8 @@
       <c r="C12" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D12" s="12" t="s">
-        <v>10</v>
+      <c r="D12" s="12">
+        <v>7</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>11</v>
@@ -10789,7 +10788,7 @@
         <v>2637</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>2488</v>
       </c>
@@ -10799,8 +10798,8 @@
       <c r="C13" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D13" s="12" t="s">
-        <v>10</v>
+      <c r="D13" s="12">
+        <v>7</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>11</v>
@@ -10827,7 +10826,7 @@
         <v>2690</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>2488</v>
       </c>
@@ -10837,8 +10836,8 @@
       <c r="C14" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="12" t="s">
-        <v>10</v>
+      <c r="D14" s="12">
+        <v>7</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>11</v>
@@ -10865,7 +10864,7 @@
         <v>2586</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>2488</v>
       </c>
@@ -10875,8 +10874,8 @@
       <c r="C15" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>10</v>
+      <c r="D15" s="12">
+        <v>7</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>11</v>
@@ -10903,7 +10902,7 @@
         <v>2572</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>2488</v>
       </c>
@@ -10913,8 +10912,8 @@
       <c r="C16" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D16" s="12" t="s">
-        <v>10</v>
+      <c r="D16" s="12">
+        <v>7</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>11</v>
@@ -10941,7 +10940,7 @@
         <v>2580</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>2488</v>
       </c>
@@ -10951,8 +10950,8 @@
       <c r="C17" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="12" t="s">
-        <v>10</v>
+      <c r="D17" s="12">
+        <v>7</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>11</v>
@@ -10979,7 +10978,7 @@
         <v>2573</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>2488</v>
       </c>
@@ -10989,8 +10988,8 @@
       <c r="C18" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D18" s="12" t="s">
-        <v>10</v>
+      <c r="D18" s="12">
+        <v>7</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>11</v>
@@ -11017,7 +11016,7 @@
         <v>2520</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>2488</v>
       </c>
@@ -11027,8 +11026,8 @@
       <c r="C19" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D19" s="12" t="s">
-        <v>10</v>
+      <c r="D19" s="12">
+        <v>7</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>11</v>
@@ -11055,7 +11054,7 @@
         <v>2549</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>2488</v>
       </c>
@@ -11065,8 +11064,8 @@
       <c r="C20" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D20" s="12" t="s">
-        <v>10</v>
+      <c r="D20" s="12">
+        <v>7</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>11</v>
@@ -11093,7 +11092,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>2488</v>
       </c>
@@ -11103,8 +11102,8 @@
       <c r="C21" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D21" s="12" t="s">
-        <v>10</v>
+      <c r="D21" s="12">
+        <v>7</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>11</v>
@@ -11131,7 +11130,7 @@
         <v>2654</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>2488</v>
       </c>
@@ -11141,8 +11140,8 @@
       <c r="C22" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="12" t="s">
-        <v>10</v>
+      <c r="D22" s="12">
+        <v>7</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>11</v>
@@ -11169,7 +11168,7 @@
         <v>2540</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>2488</v>
       </c>
@@ -11179,8 +11178,8 @@
       <c r="C23" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D23" s="12" t="s">
-        <v>10</v>
+      <c r="D23" s="12">
+        <v>7</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>11</v>
@@ -11207,7 +11206,7 @@
         <v>2542</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>2488</v>
       </c>
@@ -11217,8 +11216,8 @@
       <c r="C24" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D24" s="12" t="s">
-        <v>10</v>
+      <c r="D24" s="12">
+        <v>7</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>11</v>
@@ -11245,7 +11244,7 @@
         <v>2537</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>2488</v>
       </c>
@@ -11255,8 +11254,8 @@
       <c r="C25" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D25" s="12" t="s">
-        <v>10</v>
+      <c r="D25" s="12">
+        <v>7</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>11</v>
@@ -11283,7 +11282,7 @@
         <v>2557</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>2488</v>
       </c>
@@ -11293,8 +11292,8 @@
       <c r="C26" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D26" s="12" t="s">
-        <v>10</v>
+      <c r="D26" s="12">
+        <v>7</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>11</v>
@@ -11321,7 +11320,7 @@
         <v>2583</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>2488</v>
       </c>
@@ -11331,8 +11330,8 @@
       <c r="C27" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D27" s="12" t="s">
-        <v>10</v>
+      <c r="D27" s="12">
+        <v>7</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>11</v>
@@ -11359,7 +11358,7 @@
         <v>2545</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>2488</v>
       </c>
@@ -11369,8 +11368,8 @@
       <c r="C28" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D28" s="12" t="s">
-        <v>10</v>
+      <c r="D28" s="12">
+        <v>7</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>11</v>
@@ -11397,7 +11396,7 @@
         <v>2694</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>2488</v>
       </c>
@@ -11407,8 +11406,8 @@
       <c r="C29" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D29" s="12" t="s">
-        <v>10</v>
+      <c r="D29" s="12">
+        <v>7</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>11</v>
@@ -11435,7 +11434,7 @@
         <v>3156</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>2488</v>
       </c>
@@ -11445,8 +11444,8 @@
       <c r="C30" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D30" s="12" t="s">
-        <v>10</v>
+      <c r="D30" s="12">
+        <v>7</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>11</v>
@@ -11473,7 +11472,7 @@
         <v>2674</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>2488</v>
       </c>
@@ -11483,8 +11482,8 @@
       <c r="C31" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D31" s="12" t="s">
-        <v>10</v>
+      <c r="D31" s="12">
+        <v>7</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>11</v>
@@ -11511,7 +11510,7 @@
         <v>2642</v>
       </c>
     </row>
-    <row r="32" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>2488</v>
       </c>
@@ -11521,7 +11520,7 @@
       <c r="C32" s="5" t="s">
         <v>665</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="12">
         <v>10</v>
       </c>
       <c r="E32" s="12" t="s">
@@ -11549,7 +11548,7 @@
         <v>2660</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>2488</v>
       </c>
@@ -11559,7 +11558,7 @@
       <c r="C33" s="5" t="s">
         <v>665</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="12">
         <v>10</v>
       </c>
       <c r="E33" s="12" t="s">
@@ -11587,7 +11586,7 @@
         <v>2578</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>2488</v>
       </c>
@@ -11597,7 +11596,7 @@
       <c r="C34" s="5" t="s">
         <v>665</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="12">
         <v>10</v>
       </c>
       <c r="E34" s="12" t="s">
@@ -11625,7 +11624,7 @@
         <v>2519</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>2488</v>
       </c>
@@ -11635,7 +11634,7 @@
       <c r="C35" s="5" t="s">
         <v>665</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="D35" s="12">
         <v>10</v>
       </c>
       <c r="E35" s="12" t="s">
@@ -11663,7 +11662,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>2488</v>
       </c>
@@ -11673,7 +11672,7 @@
       <c r="C36" s="5" t="s">
         <v>665</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="D36" s="12">
         <v>10</v>
       </c>
       <c r="E36" s="12" t="s">
@@ -11701,7 +11700,7 @@
         <v>2551</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>2488</v>
       </c>
@@ -11711,7 +11710,7 @@
       <c r="C37" s="5" t="s">
         <v>665</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="D37" s="12">
         <v>10</v>
       </c>
       <c r="E37" s="12" t="s">
@@ -11739,7 +11738,7 @@
         <v>2569</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>2488</v>
       </c>
@@ -11749,7 +11748,7 @@
       <c r="C38" s="5" t="s">
         <v>665</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="D38" s="12">
         <v>10</v>
       </c>
       <c r="E38" s="12" t="s">
@@ -11777,7 +11776,7 @@
         <v>2561</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>2488</v>
       </c>
@@ -11787,7 +11786,7 @@
       <c r="C39" s="5" t="s">
         <v>665</v>
       </c>
-      <c r="D39" s="12" t="s">
+      <c r="D39" s="12">
         <v>10</v>
       </c>
       <c r="E39" s="12" t="s">
@@ -11815,7 +11814,7 @@
         <v>2576</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
         <v>2488</v>
       </c>
@@ -11825,7 +11824,7 @@
       <c r="C40" s="5" t="s">
         <v>665</v>
       </c>
-      <c r="D40" s="12" t="s">
+      <c r="D40" s="12">
         <v>10</v>
       </c>
       <c r="E40" s="12" t="s">
@@ -11853,7 +11852,7 @@
         <v>2661</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>2488</v>
       </c>
@@ -11863,7 +11862,7 @@
       <c r="C41" s="5" t="s">
         <v>665</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="D41" s="12">
         <v>10</v>
       </c>
       <c r="E41" s="12" t="s">
@@ -11891,7 +11890,7 @@
         <v>2643</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>2488</v>
       </c>
@@ -11901,7 +11900,7 @@
       <c r="C42" s="5" t="s">
         <v>665</v>
       </c>
-      <c r="D42" s="12" t="s">
+      <c r="D42" s="12">
         <v>10</v>
       </c>
       <c r="E42" s="12" t="s">
@@ -11929,7 +11928,7 @@
         <v>2692</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>2488</v>
       </c>
@@ -11939,7 +11938,7 @@
       <c r="C43" s="5" t="s">
         <v>665</v>
       </c>
-      <c r="D43" s="12" t="s">
+      <c r="D43" s="12">
         <v>10</v>
       </c>
       <c r="E43" s="12" t="s">
@@ -11967,7 +11966,7 @@
         <v>2574</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
         <v>2488</v>
       </c>
@@ -11977,7 +11976,7 @@
       <c r="C44" s="5" t="s">
         <v>665</v>
       </c>
-      <c r="D44" s="12" t="s">
+      <c r="D44" s="12">
         <v>10</v>
       </c>
       <c r="E44" s="12" t="s">
@@ -12005,7 +12004,7 @@
         <v>2567</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
         <v>2488</v>
       </c>
@@ -12015,7 +12014,7 @@
       <c r="C45" s="5" t="s">
         <v>665</v>
       </c>
-      <c r="D45" s="12" t="s">
+      <c r="D45" s="12">
         <v>10</v>
       </c>
       <c r="E45" s="12" t="s">
@@ -12043,7 +12042,7 @@
         <v>2570</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
         <v>2488</v>
       </c>
@@ -12053,7 +12052,7 @@
       <c r="C46" s="5" t="s">
         <v>665</v>
       </c>
-      <c r="D46" s="12" t="s">
+      <c r="D46" s="12">
         <v>10</v>
       </c>
       <c r="E46" s="12" t="s">
@@ -12081,7 +12080,7 @@
         <v>2553</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>2488</v>
       </c>
@@ -12091,7 +12090,7 @@
       <c r="C47" s="5" t="s">
         <v>665</v>
       </c>
-      <c r="D47" s="12" t="s">
+      <c r="D47" s="12">
         <v>10</v>
       </c>
       <c r="E47" s="12" t="s">
@@ -12119,7 +12118,7 @@
         <v>2566</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
         <v>2488</v>
       </c>
@@ -12129,7 +12128,7 @@
       <c r="C48" s="5" t="s">
         <v>665</v>
       </c>
-      <c r="D48" s="12" t="s">
+      <c r="D48" s="12">
         <v>10</v>
       </c>
       <c r="E48" s="12" t="s">
@@ -12157,7 +12156,7 @@
         <v>2541</v>
       </c>
     </row>
-    <row r="49" spans="1:12" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
         <v>2488</v>
       </c>
@@ -12167,7 +12166,7 @@
       <c r="C49" s="5" t="s">
         <v>665</v>
       </c>
-      <c r="D49" s="12" t="s">
+      <c r="D49" s="12">
         <v>10</v>
       </c>
       <c r="E49" s="12" t="s">
@@ -12195,7 +12194,7 @@
         <v>2558</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
         <v>2488</v>
       </c>
@@ -12205,7 +12204,7 @@
       <c r="C50" s="5" t="s">
         <v>665</v>
       </c>
-      <c r="D50" s="12" t="s">
+      <c r="D50" s="12">
         <v>10</v>
       </c>
       <c r="E50" s="12" t="s">
@@ -12233,7 +12232,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
         <v>2488</v>
       </c>
@@ -12243,7 +12242,7 @@
       <c r="C51" s="5" t="s">
         <v>665</v>
       </c>
-      <c r="D51" s="12" t="s">
+      <c r="D51" s="12">
         <v>10</v>
       </c>
       <c r="E51" s="12" t="s">
@@ -12271,7 +12270,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
         <v>2488</v>
       </c>
@@ -12281,7 +12280,7 @@
       <c r="C52" s="5" t="s">
         <v>665</v>
       </c>
-      <c r="D52" s="12" t="s">
+      <c r="D52" s="12">
         <v>10</v>
       </c>
       <c r="E52" s="12" t="s">
@@ -12309,7 +12308,7 @@
         <v>2693</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
         <v>2488</v>
       </c>
@@ -12319,7 +12318,7 @@
       <c r="C53" s="5" t="s">
         <v>665</v>
       </c>
-      <c r="D53" s="12" t="s">
+      <c r="D53" s="12">
         <v>10</v>
       </c>
       <c r="E53" s="12" t="s">
@@ -12347,7 +12346,7 @@
         <v>2639</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
         <v>2488</v>
       </c>
@@ -12357,7 +12356,7 @@
       <c r="C54" s="5" t="s">
         <v>665</v>
       </c>
-      <c r="D54" s="12" t="s">
+      <c r="D54" s="12">
         <v>10</v>
       </c>
       <c r="E54" s="12" t="s">
@@ -12385,7 +12384,7 @@
         <v>2679</v>
       </c>
     </row>
-    <row r="55" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
         <v>2488</v>
       </c>
@@ -12395,7 +12394,7 @@
       <c r="C55" s="5" t="s">
         <v>665</v>
       </c>
-      <c r="D55" s="12" t="s">
+      <c r="D55" s="12">
         <v>10</v>
       </c>
       <c r="E55" s="12" t="s">
@@ -12423,7 +12422,7 @@
         <v>2658</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
         <v>2488</v>
       </c>
@@ -12433,8 +12432,8 @@
       <c r="C56" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="D56" s="12" t="s">
-        <v>10</v>
+      <c r="D56" s="12">
+        <v>12</v>
       </c>
       <c r="E56" s="12" t="s">
         <v>11</v>
@@ -12461,7 +12460,7 @@
         <v>2518</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>2488</v>
       </c>
@@ -12471,8 +12470,8 @@
       <c r="C57" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="D57" s="12" t="s">
-        <v>10</v>
+      <c r="D57" s="12">
+        <v>12</v>
       </c>
       <c r="E57" s="12" t="s">
         <v>11</v>
@@ -12499,7 +12498,7 @@
         <v>2539</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
         <v>2488</v>
       </c>
@@ -12509,8 +12508,8 @@
       <c r="C58" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="D58" s="12" t="s">
-        <v>10</v>
+      <c r="D58" s="12">
+        <v>12</v>
       </c>
       <c r="E58" s="12" t="s">
         <v>11</v>
@@ -12537,7 +12536,7 @@
         <v>2547</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
         <v>2488</v>
       </c>
@@ -12547,8 +12546,8 @@
       <c r="C59" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="D59" s="12" t="s">
-        <v>10</v>
+      <c r="D59" s="12">
+        <v>12</v>
       </c>
       <c r="E59" s="12" t="s">
         <v>11</v>
@@ -12575,7 +12574,7 @@
         <v>2562</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
         <v>2488</v>
       </c>
@@ -12585,8 +12584,8 @@
       <c r="C60" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="D60" s="12" t="s">
-        <v>10</v>
+      <c r="D60" s="12">
+        <v>12</v>
       </c>
       <c r="E60" s="12" t="s">
         <v>11</v>
@@ -12613,7 +12612,7 @@
         <v>2550</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
         <v>2488</v>
       </c>
@@ -12623,8 +12622,8 @@
       <c r="C61" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="D61" s="12" t="s">
-        <v>10</v>
+      <c r="D61" s="12">
+        <v>12</v>
       </c>
       <c r="E61" s="12" t="s">
         <v>11</v>
@@ -12651,7 +12650,7 @@
         <v>2554</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
         <v>2488</v>
       </c>
@@ -12661,8 +12660,8 @@
       <c r="C62" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="D62" s="12" t="s">
-        <v>10</v>
+      <c r="D62" s="12">
+        <v>12</v>
       </c>
       <c r="E62" s="12" t="s">
         <v>11</v>
@@ -12689,7 +12688,7 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
         <v>2488</v>
       </c>
@@ -12699,8 +12698,8 @@
       <c r="C63" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="D63" s="12" t="s">
-        <v>10</v>
+      <c r="D63" s="12">
+        <v>12</v>
       </c>
       <c r="E63" s="12" t="s">
         <v>11</v>
@@ -12727,7 +12726,7 @@
         <v>2571</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
         <v>2488</v>
       </c>
@@ -12737,8 +12736,8 @@
       <c r="C64" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="D64" s="12" t="s">
-        <v>10</v>
+      <c r="D64" s="12">
+        <v>12</v>
       </c>
       <c r="E64" s="12" t="s">
         <v>11</v>
@@ -12765,7 +12764,7 @@
         <v>2666</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
         <v>2488</v>
       </c>
@@ -12775,8 +12774,8 @@
       <c r="C65" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="D65" s="12" t="s">
-        <v>10</v>
+      <c r="D65" s="12">
+        <v>12</v>
       </c>
       <c r="E65" s="12" t="s">
         <v>11</v>
@@ -12803,7 +12802,7 @@
         <v>2588</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="s">
         <v>2488</v>
       </c>
@@ -12813,8 +12812,8 @@
       <c r="C66" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="D66" s="12" t="s">
-        <v>10</v>
+      <c r="D66" s="12">
+        <v>12</v>
       </c>
       <c r="E66" s="12" t="s">
         <v>11</v>
@@ -12841,7 +12840,7 @@
         <v>2589</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
         <v>2488</v>
       </c>
@@ -12851,8 +12850,8 @@
       <c r="C67" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="D67" s="12" t="s">
-        <v>10</v>
+      <c r="D67" s="12">
+        <v>12</v>
       </c>
       <c r="E67" s="12" t="s">
         <v>11</v>
@@ -12879,7 +12878,7 @@
         <v>2640</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="s">
         <v>2488</v>
       </c>
@@ -12889,8 +12888,8 @@
       <c r="C68" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="D68" s="12" t="s">
-        <v>10</v>
+      <c r="D68" s="12">
+        <v>12</v>
       </c>
       <c r="E68" s="12" t="s">
         <v>11</v>
@@ -12917,7 +12916,7 @@
         <v>2681</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="s">
         <v>2488</v>
       </c>
@@ -12927,8 +12926,8 @@
       <c r="C69" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="D69" s="12" t="s">
-        <v>10</v>
+      <c r="D69" s="12">
+        <v>12</v>
       </c>
       <c r="E69" s="12" t="s">
         <v>11</v>
@@ -12955,7 +12954,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="s">
         <v>2488</v>
       </c>
@@ -12965,8 +12964,8 @@
       <c r="C70" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="D70" s="12" t="s">
-        <v>10</v>
+      <c r="D70" s="12">
+        <v>12</v>
       </c>
       <c r="E70" s="12" t="s">
         <v>11</v>
@@ -12993,7 +12992,7 @@
         <v>2521</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="12" t="s">
         <v>2488</v>
       </c>
@@ -13003,8 +13002,8 @@
       <c r="C71" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="D71" s="12" t="s">
-        <v>10</v>
+      <c r="D71" s="12">
+        <v>12</v>
       </c>
       <c r="E71" s="12" t="s">
         <v>11</v>
@@ -13031,7 +13030,7 @@
         <v>2538</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="s">
         <v>2488</v>
       </c>
@@ -13041,8 +13040,8 @@
       <c r="C72" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="D72" s="12" t="s">
-        <v>10</v>
+      <c r="D72" s="12">
+        <v>12</v>
       </c>
       <c r="E72" s="12" t="s">
         <v>11</v>
@@ -13069,7 +13068,7 @@
         <v>2543</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="12" t="s">
         <v>2488</v>
       </c>
@@ -13079,8 +13078,8 @@
       <c r="C73" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="D73" s="12" t="s">
-        <v>10</v>
+      <c r="D73" s="12">
+        <v>12</v>
       </c>
       <c r="E73" s="12" t="s">
         <v>11</v>
@@ -13107,7 +13106,7 @@
         <v>2559</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="12" t="s">
         <v>2488</v>
       </c>
@@ -13117,8 +13116,8 @@
       <c r="C74" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="D74" s="12" t="s">
-        <v>10</v>
+      <c r="D74" s="12">
+        <v>12</v>
       </c>
       <c r="E74" s="12" t="s">
         <v>11</v>
@@ -13145,7 +13144,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="12" t="s">
         <v>2488</v>
       </c>
@@ -13155,8 +13154,8 @@
       <c r="C75" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="D75" s="12" t="s">
-        <v>10</v>
+      <c r="D75" s="12">
+        <v>12</v>
       </c>
       <c r="E75" s="12" t="s">
         <v>11</v>
@@ -13183,7 +13182,7 @@
         <v>2585</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="12" t="s">
         <v>2488</v>
       </c>
@@ -13193,8 +13192,8 @@
       <c r="C76" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="D76" s="12" t="s">
-        <v>10</v>
+      <c r="D76" s="12">
+        <v>12</v>
       </c>
       <c r="E76" s="12" t="s">
         <v>11</v>
@@ -13221,7 +13220,7 @@
         <v>2649</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="12" t="s">
         <v>2488</v>
       </c>
@@ -13231,8 +13230,8 @@
       <c r="C77" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="D77" s="12" t="s">
-        <v>10</v>
+      <c r="D77" s="12">
+        <v>12</v>
       </c>
       <c r="E77" s="12" t="s">
         <v>11</v>
@@ -13259,7 +13258,7 @@
         <v>2633</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="12" t="s">
         <v>2488</v>
       </c>
@@ -13269,8 +13268,8 @@
       <c r="C78" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="D78" s="12" t="s">
-        <v>10</v>
+      <c r="D78" s="12">
+        <v>12</v>
       </c>
       <c r="E78" s="12" t="s">
         <v>11</v>
@@ -13297,7 +13296,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="12" t="s">
         <v>2488</v>
       </c>
@@ -13307,8 +13306,8 @@
       <c r="C79" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="D79" s="12" t="s">
-        <v>10</v>
+      <c r="D79" s="12">
+        <v>12</v>
       </c>
       <c r="E79" s="12" t="s">
         <v>11</v>
@@ -13335,7 +13334,7 @@
         <v>3136</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="12" t="s">
         <v>2488</v>
       </c>
@@ -13373,7 +13372,7 @@
         <v>2652</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="12" t="s">
         <v>2488</v>
       </c>
@@ -13411,7 +13410,7 @@
         <v>2665</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="12" t="s">
         <v>2488</v>
       </c>
@@ -13449,7 +13448,7 @@
         <v>2522</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="12" t="s">
         <v>2488</v>
       </c>
@@ -13487,7 +13486,7 @@
         <v>2664</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="12" t="s">
         <v>2488</v>
       </c>
@@ -13525,7 +13524,7 @@
         <v>2707</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="12" t="s">
         <v>2488</v>
       </c>
@@ -13563,7 +13562,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="12" t="s">
         <v>2488</v>
       </c>
@@ -13601,7 +13600,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="12" t="s">
         <v>2488</v>
       </c>
@@ -13639,7 +13638,7 @@
         <v>2663</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="12" t="s">
         <v>2488</v>
       </c>
@@ -13677,7 +13676,7 @@
         <v>2524</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="12" t="s">
         <v>2488</v>
       </c>
@@ -13715,7 +13714,7 @@
         <v>2579</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="12" t="s">
         <v>2488</v>
       </c>
@@ -13753,7 +13752,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="12" t="s">
         <v>2488</v>
       </c>
@@ -13791,7 +13790,7 @@
         <v>2807</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="12" t="s">
         <v>2488</v>
       </c>
@@ -13829,7 +13828,7 @@
         <v>2645</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="s">
         <v>2488</v>
       </c>
@@ -13867,7 +13866,7 @@
         <v>2581</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="12" t="s">
         <v>2488</v>
       </c>
@@ -13905,7 +13904,7 @@
         <v>2703</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="12" t="s">
         <v>2488</v>
       </c>
@@ -13943,7 +13942,7 @@
         <v>2704</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="12" t="s">
         <v>2488</v>
       </c>
@@ -13981,7 +13980,7 @@
         <v>2555</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="12" t="s">
         <v>2488</v>
       </c>
@@ -14019,7 +14018,7 @@
         <v>3143</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="12" t="s">
         <v>2488</v>
       </c>
@@ -14057,7 +14056,7 @@
         <v>2709</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="12" t="s">
         <v>2488</v>
       </c>
@@ -14095,7 +14094,7 @@
         <v>2657</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="12" t="s">
         <v>2488</v>
       </c>
@@ -14133,7 +14132,7 @@
         <v>2695</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="12" t="s">
         <v>2488</v>
       </c>
@@ -14171,7 +14170,7 @@
         <v>2575</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="12" t="s">
         <v>2488</v>
       </c>
@@ -14209,7 +14208,7 @@
         <v>2556</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="12" t="s">
         <v>2488</v>
       </c>
@@ -14247,7 +14246,7 @@
         <v>2577</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="12" t="s">
         <v>2488</v>
       </c>
@@ -14285,7 +14284,7 @@
         <v>2560</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="12" t="s">
         <v>2488</v>
       </c>
@@ -14323,7 +14322,7 @@
         <v>2698</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="12" t="s">
         <v>2488</v>
       </c>
@@ -14361,7 +14360,7 @@
         <v>2767</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="12" t="s">
         <v>2488</v>
       </c>
@@ -14399,7 +14398,7 @@
         <v>3098</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="12" t="s">
         <v>2488</v>
       </c>
@@ -14437,7 +14436,7 @@
         <v>2992</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="12" t="s">
         <v>2488</v>
       </c>
@@ -14471,7 +14470,7 @@
         <v>3158</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="12" t="s">
         <v>2488</v>
       </c>
@@ -14505,7 +14504,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="12" t="s">
         <v>2488</v>
       </c>
@@ -14543,7 +14542,7 @@
         <v>2653</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="12" t="s">
         <v>2488</v>
       </c>
@@ -14581,7 +14580,7 @@
         <v>2667</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="12" t="s">
         <v>2488</v>
       </c>
@@ -14619,7 +14618,7 @@
         <v>2691</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="12" t="s">
         <v>2488</v>
       </c>
@@ -14657,7 +14656,7 @@
         <v>3106</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="12" t="s">
         <v>2488</v>
       </c>
@@ -14667,8 +14666,8 @@
       <c r="C115" s="12" t="s">
         <v>563</v>
       </c>
-      <c r="D115" s="12" t="s">
-        <v>2504</v>
+      <c r="D115" s="12">
+        <v>2</v>
       </c>
       <c r="E115" s="17" t="s">
         <v>162</v>
@@ -14695,7 +14694,7 @@
         <v>2651</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="12" t="s">
         <v>2488</v>
       </c>
@@ -14705,8 +14704,8 @@
       <c r="C116" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="D116" s="12" t="s">
-        <v>2504</v>
+      <c r="D116" s="12">
+        <v>1</v>
       </c>
       <c r="E116" s="12" t="s">
         <v>162</v>
@@ -14733,7 +14732,7 @@
         <v>2611</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="12" t="s">
         <v>2488</v>
       </c>
@@ -14743,8 +14742,8 @@
       <c r="C117" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="D117" s="12" t="s">
-        <v>2504</v>
+      <c r="D117" s="12">
+        <v>1</v>
       </c>
       <c r="E117" s="12" t="s">
         <v>162</v>
@@ -14771,7 +14770,7 @@
         <v>2593</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="12" t="s">
         <v>2488</v>
       </c>
@@ -14781,8 +14780,8 @@
       <c r="C118" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="D118" s="12" t="s">
-        <v>2504</v>
+      <c r="D118" s="12">
+        <v>1</v>
       </c>
       <c r="E118" s="12" t="s">
         <v>162</v>
@@ -14809,7 +14808,7 @@
         <v>2605</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="12" t="s">
         <v>2488</v>
       </c>
@@ -14819,8 +14818,8 @@
       <c r="C119" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="D119" s="12" t="s">
-        <v>2504</v>
+      <c r="D119" s="12">
+        <v>1</v>
       </c>
       <c r="E119" s="12" t="s">
         <v>162</v>
@@ -14847,7 +14846,7 @@
         <v>2604</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="12" t="s">
         <v>2488</v>
       </c>
@@ -14857,8 +14856,8 @@
       <c r="C120" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="D120" s="12" t="s">
-        <v>2504</v>
+      <c r="D120" s="12">
+        <v>1</v>
       </c>
       <c r="E120" s="12" t="s">
         <v>162</v>
@@ -14885,7 +14884,7 @@
         <v>2617</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="12" t="s">
         <v>2488</v>
       </c>
@@ -14895,8 +14894,8 @@
       <c r="C121" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="D121" s="12" t="s">
-        <v>2504</v>
+      <c r="D121" s="12">
+        <v>1</v>
       </c>
       <c r="E121" s="12" t="s">
         <v>162</v>
@@ -14923,7 +14922,7 @@
         <v>2622</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="12" t="s">
         <v>2488</v>
       </c>
@@ -14933,8 +14932,8 @@
       <c r="C122" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="D122" s="12" t="s">
-        <v>2504</v>
+      <c r="D122" s="12">
+        <v>1</v>
       </c>
       <c r="E122" s="12" t="s">
         <v>162</v>
@@ -14961,7 +14960,7 @@
         <v>2646</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="12" t="s">
         <v>2488</v>
       </c>
@@ -14971,8 +14970,8 @@
       <c r="C123" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="D123" s="12" t="s">
-        <v>2504</v>
+      <c r="D123" s="12">
+        <v>1</v>
       </c>
       <c r="E123" s="12" t="s">
         <v>162</v>
@@ -14999,7 +14998,7 @@
         <v>2647</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="12" t="s">
         <v>2488</v>
       </c>
@@ -15009,8 +15008,8 @@
       <c r="C124" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="D124" s="12" t="s">
-        <v>2504</v>
+      <c r="D124" s="12">
+        <v>1</v>
       </c>
       <c r="E124" s="12" t="s">
         <v>162</v>
@@ -15037,7 +15036,7 @@
         <v>2670</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="12" t="s">
         <v>2488</v>
       </c>
@@ -15047,8 +15046,8 @@
       <c r="C125" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="D125" s="12" t="s">
-        <v>2504</v>
+      <c r="D125" s="12">
+        <v>1</v>
       </c>
       <c r="E125" s="12" t="s">
         <v>162</v>
@@ -15075,7 +15074,7 @@
         <v>2671</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="12" t="s">
         <v>2488</v>
       </c>
@@ -15085,8 +15084,8 @@
       <c r="C126" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="D126" s="12" t="s">
-        <v>2504</v>
+      <c r="D126" s="12">
+        <v>1</v>
       </c>
       <c r="E126" s="12" t="s">
         <v>162</v>
@@ -15113,7 +15112,7 @@
         <v>2532</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="12" t="s">
         <v>2488</v>
       </c>
@@ -15123,8 +15122,8 @@
       <c r="C127" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="D127" s="12" t="s">
-        <v>2504</v>
+      <c r="D127" s="12">
+        <v>1</v>
       </c>
       <c r="E127" s="12" t="s">
         <v>162</v>
@@ -15151,7 +15150,7 @@
         <v>2536</v>
       </c>
     </row>
-    <row r="128" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="12" t="s">
         <v>2488</v>
       </c>
@@ -15161,8 +15160,8 @@
       <c r="C128" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="D128" s="12" t="s">
-        <v>2504</v>
+      <c r="D128" s="12">
+        <v>1</v>
       </c>
       <c r="E128" s="12" t="s">
         <v>162</v>
@@ -15189,7 +15188,7 @@
         <v>2591</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="12" t="s">
         <v>2488</v>
       </c>
@@ -15199,8 +15198,8 @@
       <c r="C129" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="D129" s="12" t="s">
-        <v>2504</v>
+      <c r="D129" s="12">
+        <v>1</v>
       </c>
       <c r="E129" s="12" t="s">
         <v>162</v>
@@ -15227,7 +15226,7 @@
         <v>2592</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="12" t="s">
         <v>2488</v>
       </c>
@@ -15237,8 +15236,8 @@
       <c r="C130" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="D130" s="12" t="s">
-        <v>2504</v>
+      <c r="D130" s="12">
+        <v>1</v>
       </c>
       <c r="E130" s="12" t="s">
         <v>162</v>
@@ -15265,7 +15264,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="12" t="s">
         <v>2488</v>
       </c>
@@ -15275,8 +15274,8 @@
       <c r="C131" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="D131" s="12" t="s">
-        <v>2504</v>
+      <c r="D131" s="12">
+        <v>1</v>
       </c>
       <c r="E131" s="12" t="s">
         <v>162</v>
@@ -15303,7 +15302,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="12" t="s">
         <v>2488</v>
       </c>
@@ -15313,8 +15312,8 @@
       <c r="C132" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="D132" s="12" t="s">
-        <v>2504</v>
+      <c r="D132" s="12">
+        <v>1</v>
       </c>
       <c r="E132" s="12" t="s">
         <v>162</v>
@@ -15341,7 +15340,7 @@
         <v>2606</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="12" t="s">
         <v>2488</v>
       </c>
@@ -15351,8 +15350,8 @@
       <c r="C133" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="D133" s="12" t="s">
-        <v>2504</v>
+      <c r="D133" s="12">
+        <v>1</v>
       </c>
       <c r="E133" s="12" t="s">
         <v>162</v>
@@ -15379,7 +15378,7 @@
         <v>2686</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="12" t="s">
         <v>2488</v>
       </c>
@@ -15389,8 +15388,8 @@
       <c r="C134" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="D134" s="12" t="s">
-        <v>2504</v>
+      <c r="D134" s="12">
+        <v>1</v>
       </c>
       <c r="E134" s="12" t="s">
         <v>162</v>
@@ -15417,7 +15416,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="12" t="s">
         <v>2488</v>
       </c>
@@ -15427,8 +15426,8 @@
       <c r="C135" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="D135" s="12" t="s">
-        <v>2504</v>
+      <c r="D135" s="12">
+        <v>1</v>
       </c>
       <c r="E135" s="12" t="s">
         <v>162</v>
@@ -15455,7 +15454,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="12" t="s">
         <v>2488</v>
       </c>
@@ -15465,8 +15464,8 @@
       <c r="C136" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="D136" s="12" t="s">
-        <v>2504</v>
+      <c r="D136" s="12">
+        <v>1</v>
       </c>
       <c r="E136" s="12" t="s">
         <v>162</v>
@@ -15493,7 +15492,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="12" t="s">
         <v>2488</v>
       </c>
@@ -15503,8 +15502,8 @@
       <c r="C137" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="D137" s="12" t="s">
-        <v>2504</v>
+      <c r="D137" s="12">
+        <v>1</v>
       </c>
       <c r="E137" s="12" t="s">
         <v>162</v>
@@ -15531,7 +15530,7 @@
         <v>2702</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="12" t="s">
         <v>2488</v>
       </c>
@@ -15541,8 +15540,8 @@
       <c r="C138" s="12" t="s">
         <v>563</v>
       </c>
-      <c r="D138" s="12" t="s">
-        <v>2504</v>
+      <c r="D138" s="12">
+        <v>2</v>
       </c>
       <c r="E138" s="12" t="s">
         <v>162</v>
@@ -15569,7 +15568,7 @@
         <v>2527</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="12" t="s">
         <v>2488</v>
       </c>
@@ -15579,8 +15578,8 @@
       <c r="C139" s="12" t="s">
         <v>563</v>
       </c>
-      <c r="D139" s="12" t="s">
-        <v>2504</v>
+      <c r="D139" s="12">
+        <v>2</v>
       </c>
       <c r="E139" s="12" t="s">
         <v>162</v>
@@ -15607,7 +15606,7 @@
         <v>2530</v>
       </c>
     </row>
-    <row r="140" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="12" t="s">
         <v>2488</v>
       </c>
@@ -15617,8 +15616,8 @@
       <c r="C140" s="12" t="s">
         <v>563</v>
       </c>
-      <c r="D140" s="12" t="s">
-        <v>2504</v>
+      <c r="D140" s="12">
+        <v>2</v>
       </c>
       <c r="E140" s="12" t="s">
         <v>162</v>
@@ -15645,7 +15644,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="141" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="12" t="s">
         <v>2488</v>
       </c>
@@ -15655,8 +15654,8 @@
       <c r="C141" s="12" t="s">
         <v>563</v>
       </c>
-      <c r="D141" s="12" t="s">
-        <v>2504</v>
+      <c r="D141" s="12">
+        <v>2</v>
       </c>
       <c r="E141" s="12" t="s">
         <v>162</v>
@@ -15683,7 +15682,7 @@
         <v>2613</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="12" t="s">
         <v>2488</v>
       </c>
@@ -15693,8 +15692,8 @@
       <c r="C142" s="12" t="s">
         <v>563</v>
       </c>
-      <c r="D142" s="12" t="s">
-        <v>2504</v>
+      <c r="D142" s="12">
+        <v>2</v>
       </c>
       <c r="E142" s="12" t="s">
         <v>162</v>
@@ -15721,7 +15720,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="12" t="s">
         <v>2488</v>
       </c>
@@ -15731,8 +15730,8 @@
       <c r="C143" s="12" t="s">
         <v>563</v>
       </c>
-      <c r="D143" s="12" t="s">
-        <v>2504</v>
+      <c r="D143" s="12">
+        <v>2</v>
       </c>
       <c r="E143" s="12" t="s">
         <v>162</v>
@@ -15759,7 +15758,7 @@
         <v>2620</v>
       </c>
     </row>
-    <row r="144" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="12" t="s">
         <v>2488</v>
       </c>
@@ -15769,8 +15768,8 @@
       <c r="C144" s="12" t="s">
         <v>563</v>
       </c>
-      <c r="D144" s="12" t="s">
-        <v>2504</v>
+      <c r="D144" s="12">
+        <v>2</v>
       </c>
       <c r="E144" s="12" t="s">
         <v>162</v>
@@ -15797,7 +15796,7 @@
         <v>2621</v>
       </c>
     </row>
-    <row r="145" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="12" t="s">
         <v>2488</v>
       </c>
@@ -15807,8 +15806,8 @@
       <c r="C145" s="12" t="s">
         <v>563</v>
       </c>
-      <c r="D145" s="12" t="s">
-        <v>2504</v>
+      <c r="D145" s="12">
+        <v>2</v>
       </c>
       <c r="E145" s="12" t="s">
         <v>162</v>
@@ -15835,7 +15834,7 @@
         <v>2625</v>
       </c>
     </row>
-    <row r="146" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="12" t="s">
         <v>2488</v>
       </c>
@@ -15845,8 +15844,8 @@
       <c r="C146" s="12" t="s">
         <v>563</v>
       </c>
-      <c r="D146" s="12" t="s">
-        <v>2504</v>
+      <c r="D146" s="12">
+        <v>2</v>
       </c>
       <c r="E146" s="12" t="s">
         <v>162</v>
@@ -15873,7 +15872,7 @@
         <v>2626</v>
       </c>
     </row>
-    <row r="147" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="12" t="s">
         <v>2488</v>
       </c>
@@ -15883,8 +15882,8 @@
       <c r="C147" s="12" t="s">
         <v>563</v>
       </c>
-      <c r="D147" s="12" t="s">
-        <v>2504</v>
+      <c r="D147" s="12">
+        <v>2</v>
       </c>
       <c r="E147" s="12" t="s">
         <v>162</v>
@@ -15911,7 +15910,7 @@
         <v>2629</v>
       </c>
     </row>
-    <row r="148" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="12" t="s">
         <v>2488</v>
       </c>
@@ -15921,8 +15920,8 @@
       <c r="C148" s="12" t="s">
         <v>563</v>
       </c>
-      <c r="D148" s="12" t="s">
-        <v>2504</v>
+      <c r="D148" s="12">
+        <v>2</v>
       </c>
       <c r="E148" s="12" t="s">
         <v>162</v>
@@ -15949,7 +15948,7 @@
         <v>2631</v>
       </c>
     </row>
-    <row r="149" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="12" t="s">
         <v>2488</v>
       </c>
@@ -15959,8 +15958,8 @@
       <c r="C149" s="12" t="s">
         <v>563</v>
       </c>
-      <c r="D149" s="12" t="s">
-        <v>2504</v>
+      <c r="D149" s="12">
+        <v>2</v>
       </c>
       <c r="E149" s="12" t="s">
         <v>162</v>
@@ -15987,7 +15986,7 @@
         <v>2635</v>
       </c>
     </row>
-    <row r="150" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="12" t="s">
         <v>2488</v>
       </c>
@@ -15997,8 +15996,8 @@
       <c r="C150" s="12" t="s">
         <v>563</v>
       </c>
-      <c r="D150" s="12" t="s">
-        <v>2504</v>
+      <c r="D150" s="12">
+        <v>2</v>
       </c>
       <c r="E150" s="12" t="s">
         <v>162</v>
@@ -16025,7 +16024,7 @@
         <v>2668</v>
       </c>
     </row>
-    <row r="151" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="12" t="s">
         <v>2488</v>
       </c>
@@ -16035,8 +16034,8 @@
       <c r="C151" s="12" t="s">
         <v>563</v>
       </c>
-      <c r="D151" s="12" t="s">
-        <v>2504</v>
+      <c r="D151" s="12">
+        <v>2</v>
       </c>
       <c r="E151" s="12" t="s">
         <v>162</v>
@@ -16063,7 +16062,7 @@
         <v>2673</v>
       </c>
     </row>
-    <row r="152" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="12" t="s">
         <v>2488</v>
       </c>
@@ -16073,8 +16072,8 @@
       <c r="C152" s="12" t="s">
         <v>563</v>
       </c>
-      <c r="D152" s="12" t="s">
-        <v>2504</v>
+      <c r="D152" s="12">
+        <v>2</v>
       </c>
       <c r="E152" s="12" t="s">
         <v>162</v>
@@ -16101,7 +16100,7 @@
         <v>2528</v>
       </c>
     </row>
-    <row r="153" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="12" t="s">
         <v>2488</v>
       </c>
@@ -16111,8 +16110,8 @@
       <c r="C153" s="12" t="s">
         <v>563</v>
       </c>
-      <c r="D153" s="12" t="s">
-        <v>2504</v>
+      <c r="D153" s="12">
+        <v>2</v>
       </c>
       <c r="E153" s="12" t="s">
         <v>162</v>
@@ -16139,7 +16138,7 @@
         <v>2534</v>
       </c>
     </row>
-    <row r="154" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="12" t="s">
         <v>2488</v>
       </c>
@@ -16149,8 +16148,8 @@
       <c r="C154" s="12" t="s">
         <v>563</v>
       </c>
-      <c r="D154" s="12" t="s">
-        <v>2504</v>
+      <c r="D154" s="12">
+        <v>2</v>
       </c>
       <c r="E154" s="12" t="s">
         <v>162</v>
@@ -16177,7 +16176,7 @@
         <v>2531</v>
       </c>
     </row>
-    <row r="155" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="12" t="s">
         <v>2488</v>
       </c>
@@ -16187,8 +16186,8 @@
       <c r="C155" s="12" t="s">
         <v>563</v>
       </c>
-      <c r="D155" s="12" t="s">
-        <v>2504</v>
+      <c r="D155" s="12">
+        <v>2</v>
       </c>
       <c r="E155" s="12" t="s">
         <v>162</v>
@@ -16215,7 +16214,7 @@
         <v>2708</v>
       </c>
     </row>
-    <row r="156" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="12" t="s">
         <v>2488</v>
       </c>
@@ -16225,8 +16224,8 @@
       <c r="C156" s="12" t="s">
         <v>563</v>
       </c>
-      <c r="D156" s="12" t="s">
-        <v>2504</v>
+      <c r="D156" s="12">
+        <v>2</v>
       </c>
       <c r="E156" s="12" t="s">
         <v>162</v>
@@ -16253,7 +16252,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="157" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="12" t="s">
         <v>2488</v>
       </c>
@@ -16263,8 +16262,8 @@
       <c r="C157" s="12" t="s">
         <v>563</v>
       </c>
-      <c r="D157" s="12" t="s">
-        <v>2504</v>
+      <c r="D157" s="12">
+        <v>2</v>
       </c>
       <c r="E157" s="12" t="s">
         <v>162</v>
@@ -16291,7 +16290,7 @@
         <v>2628</v>
       </c>
     </row>
-    <row r="158" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="12" t="s">
         <v>2488</v>
       </c>
@@ -16301,8 +16300,8 @@
       <c r="C158" s="12" t="s">
         <v>563</v>
       </c>
-      <c r="D158" s="12" t="s">
-        <v>2504</v>
+      <c r="D158" s="12">
+        <v>2</v>
       </c>
       <c r="E158" s="12" t="s">
         <v>162</v>
@@ -16329,7 +16328,7 @@
         <v>2630</v>
       </c>
     </row>
-    <row r="159" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="12" t="s">
         <v>2488</v>
       </c>
@@ -16339,8 +16338,8 @@
       <c r="C159" s="12" t="s">
         <v>563</v>
       </c>
-      <c r="D159" s="12" t="s">
-        <v>2504</v>
+      <c r="D159" s="12">
+        <v>2</v>
       </c>
       <c r="E159" s="12" t="s">
         <v>162</v>
@@ -16367,7 +16366,7 @@
         <v>2632</v>
       </c>
     </row>
-    <row r="160" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="12" t="s">
         <v>2488</v>
       </c>
@@ -16377,8 +16376,8 @@
       <c r="C160" s="12" t="s">
         <v>563</v>
       </c>
-      <c r="D160" s="12" t="s">
-        <v>2504</v>
+      <c r="D160" s="12">
+        <v>2</v>
       </c>
       <c r="E160" s="12" t="s">
         <v>162</v>
@@ -16405,7 +16404,7 @@
         <v>2638</v>
       </c>
     </row>
-    <row r="161" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="12" t="s">
         <v>2488</v>
       </c>
@@ -16415,8 +16414,8 @@
       <c r="C161" s="12" t="s">
         <v>563</v>
       </c>
-      <c r="D161" s="12" t="s">
-        <v>2504</v>
+      <c r="D161" s="12">
+        <v>2</v>
       </c>
       <c r="E161" s="12" t="s">
         <v>162</v>
@@ -16443,7 +16442,7 @@
         <v>2672</v>
       </c>
     </row>
-    <row r="162" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="12" t="s">
         <v>2488</v>
       </c>
@@ -16453,8 +16452,8 @@
       <c r="C162" s="12" t="s">
         <v>563</v>
       </c>
-      <c r="D162" s="12" t="s">
-        <v>2504</v>
+      <c r="D162" s="12">
+        <v>2</v>
       </c>
       <c r="E162" s="12" t="s">
         <v>162</v>
@@ -16481,7 +16480,7 @@
         <v>2525</v>
       </c>
     </row>
-    <row r="163" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="12" t="s">
         <v>2488</v>
       </c>
@@ -16491,8 +16490,8 @@
       <c r="C163" s="12" t="s">
         <v>563</v>
       </c>
-      <c r="D163" s="12" t="s">
-        <v>2504</v>
+      <c r="D163" s="12">
+        <v>2</v>
       </c>
       <c r="E163" s="12" t="s">
         <v>162</v>
@@ -16519,7 +16518,7 @@
         <v>2526</v>
       </c>
     </row>
-    <row r="164" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="12" t="s">
         <v>2488</v>
       </c>
@@ -16529,8 +16528,8 @@
       <c r="C164" s="12" t="s">
         <v>563</v>
       </c>
-      <c r="D164" s="12" t="s">
-        <v>2504</v>
+      <c r="D164" s="12">
+        <v>2</v>
       </c>
       <c r="E164" s="12" t="s">
         <v>162</v>
@@ -16557,7 +16556,7 @@
         <v>2603</v>
       </c>
     </row>
-    <row r="165" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="12" t="s">
         <v>2488</v>
       </c>
@@ -16567,8 +16566,8 @@
       <c r="C165" s="12" t="s">
         <v>563</v>
       </c>
-      <c r="D165" s="12" t="s">
-        <v>2504</v>
+      <c r="D165" s="12">
+        <v>2</v>
       </c>
       <c r="E165" s="12" t="s">
         <v>162</v>
@@ -16595,7 +16594,7 @@
         <v>2595</v>
       </c>
     </row>
-    <row r="166" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="12" t="s">
         <v>2488</v>
       </c>
@@ -16605,8 +16604,8 @@
       <c r="C166" s="12" t="s">
         <v>563</v>
       </c>
-      <c r="D166" s="12" t="s">
-        <v>2504</v>
+      <c r="D166" s="12">
+        <v>2</v>
       </c>
       <c r="E166" s="12" t="s">
         <v>162</v>
@@ -16633,7 +16632,7 @@
         <v>2619</v>
       </c>
     </row>
-    <row r="167" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="12" t="s">
         <v>2488</v>
       </c>
@@ -16643,8 +16642,8 @@
       <c r="C167" s="12" t="s">
         <v>563</v>
       </c>
-      <c r="D167" s="12" t="s">
-        <v>2504</v>
+      <c r="D167" s="12">
+        <v>2</v>
       </c>
       <c r="E167" s="12" t="s">
         <v>162</v>
@@ -16671,7 +16670,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="168" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="12" t="s">
         <v>2488</v>
       </c>
@@ -16681,8 +16680,8 @@
       <c r="C168" s="12" t="s">
         <v>563</v>
       </c>
-      <c r="D168" s="12" t="s">
-        <v>2504</v>
+      <c r="D168" s="12">
+        <v>2</v>
       </c>
       <c r="E168" s="12" t="s">
         <v>162</v>
@@ -16709,7 +16708,7 @@
         <v>2608</v>
       </c>
     </row>
-    <row r="169" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="12" t="s">
         <v>2488</v>
       </c>
@@ -16719,8 +16718,8 @@
       <c r="C169" s="12" t="s">
         <v>563</v>
       </c>
-      <c r="D169" s="12" t="s">
-        <v>2504</v>
+      <c r="D169" s="12">
+        <v>2</v>
       </c>
       <c r="E169" s="12" t="s">
         <v>162</v>
@@ -16747,7 +16746,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="170" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="12" t="s">
         <v>2488</v>
       </c>
@@ -16757,8 +16756,8 @@
       <c r="C170" s="12" t="s">
         <v>563</v>
       </c>
-      <c r="D170" s="12" t="s">
-        <v>2504</v>
+      <c r="D170" s="12">
+        <v>2</v>
       </c>
       <c r="E170" s="12" t="s">
         <v>162</v>
@@ -16785,7 +16784,7 @@
         <v>2669</v>
       </c>
     </row>
-    <row r="171" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="12" t="s">
         <v>2488</v>
       </c>
@@ -16795,8 +16794,8 @@
       <c r="C171" s="12" t="s">
         <v>563</v>
       </c>
-      <c r="D171" s="12" t="s">
-        <v>2504</v>
+      <c r="D171" s="12">
+        <v>2</v>
       </c>
       <c r="E171" s="12" t="s">
         <v>162</v>
@@ -16823,7 +16822,7 @@
         <v>2641</v>
       </c>
     </row>
-    <row r="172" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="12" t="s">
         <v>2488</v>
       </c>
@@ -16833,8 +16832,8 @@
       <c r="C172" s="12" t="s">
         <v>563</v>
       </c>
-      <c r="D172" s="12" t="s">
-        <v>2504</v>
+      <c r="D172" s="12">
+        <v>2</v>
       </c>
       <c r="E172" s="12" t="s">
         <v>162</v>
@@ -16861,7 +16860,7 @@
         <v>2683</v>
       </c>
     </row>
-    <row r="173" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="12" t="s">
         <v>2488</v>
       </c>
@@ -16871,8 +16870,8 @@
       <c r="C173" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="D173" s="12" t="s">
-        <v>2504</v>
+      <c r="D173" s="12">
+        <v>1</v>
       </c>
       <c r="E173" s="12" t="s">
         <v>162</v>
@@ -16899,7 +16898,7 @@
         <v>2602</v>
       </c>
     </row>
-    <row r="174" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="12" t="s">
         <v>2488</v>
       </c>
@@ -16909,8 +16908,8 @@
       <c r="C174" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="D174" s="12" t="s">
-        <v>2504</v>
+      <c r="D174" s="12">
+        <v>1</v>
       </c>
       <c r="E174" s="12" t="s">
         <v>162</v>
@@ -16937,7 +16936,7 @@
         <v>2599</v>
       </c>
     </row>
-    <row r="175" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="12" t="s">
         <v>2488</v>
       </c>
@@ -16947,8 +16946,8 @@
       <c r="C175" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="D175" s="12" t="s">
-        <v>2504</v>
+      <c r="D175" s="12">
+        <v>1</v>
       </c>
       <c r="E175" s="12" t="s">
         <v>162</v>
@@ -16975,7 +16974,7 @@
         <v>2598</v>
       </c>
     </row>
-    <row r="176" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="12" t="s">
         <v>2488</v>
       </c>
@@ -16985,8 +16984,8 @@
       <c r="C176" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="D176" s="12" t="s">
-        <v>2504</v>
+      <c r="D176" s="12">
+        <v>1</v>
       </c>
       <c r="E176" s="12" t="s">
         <v>162</v>
@@ -17013,7 +17012,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="177" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="12" t="s">
         <v>2488</v>
       </c>
@@ -17023,8 +17022,8 @@
       <c r="C177" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="D177" s="12" t="s">
-        <v>2504</v>
+      <c r="D177" s="12">
+        <v>1</v>
       </c>
       <c r="E177" s="12" t="s">
         <v>162</v>
@@ -17051,7 +17050,7 @@
         <v>2623</v>
       </c>
     </row>
-    <row r="178" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="12" t="s">
         <v>2488</v>
       </c>
@@ -17061,8 +17060,8 @@
       <c r="C178" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="D178" s="12" t="s">
-        <v>2504</v>
+      <c r="D178" s="12">
+        <v>1</v>
       </c>
       <c r="E178" s="12" t="s">
         <v>162</v>
@@ -17089,7 +17088,7 @@
         <v>2596</v>
       </c>
     </row>
-    <row r="179" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="12" t="s">
         <v>2488</v>
       </c>
@@ -17099,8 +17098,8 @@
       <c r="C179" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="D179" s="12" t="s">
-        <v>2504</v>
+      <c r="D179" s="12">
+        <v>1</v>
       </c>
       <c r="E179" s="12" t="s">
         <v>162</v>
@@ -17127,7 +17126,7 @@
         <v>2614</v>
       </c>
     </row>
-    <row r="180" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="12" t="s">
         <v>2488</v>
       </c>
@@ -17137,8 +17136,8 @@
       <c r="C180" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="D180" s="12" t="s">
-        <v>2504</v>
+      <c r="D180" s="12">
+        <v>1</v>
       </c>
       <c r="E180" s="12" t="s">
         <v>162</v>
@@ -17165,7 +17164,7 @@
         <v>2601</v>
       </c>
     </row>
-    <row r="181" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="12" t="s">
         <v>2488</v>
       </c>
@@ -17175,8 +17174,8 @@
       <c r="C181" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="D181" s="12" t="s">
-        <v>2504</v>
+      <c r="D181" s="12">
+        <v>1</v>
       </c>
       <c r="E181" s="12" t="s">
         <v>162</v>
@@ -17203,7 +17202,7 @@
         <v>2624</v>
       </c>
     </row>
-    <row r="182" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="12" t="s">
         <v>2488</v>
       </c>
@@ -17213,8 +17212,8 @@
       <c r="C182" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="D182" s="12" t="s">
-        <v>2504</v>
+      <c r="D182" s="12">
+        <v>1</v>
       </c>
       <c r="E182" s="12" t="s">
         <v>162</v>
@@ -17241,7 +17240,7 @@
         <v>2648</v>
       </c>
     </row>
-    <row r="183" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="12" t="s">
         <v>2488</v>
       </c>
@@ -17251,8 +17250,8 @@
       <c r="C183" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="D183" s="12" t="s">
-        <v>2504</v>
+      <c r="D183" s="12">
+        <v>1</v>
       </c>
       <c r="E183" s="12" t="s">
         <v>162</v>
@@ -17279,7 +17278,7 @@
         <v>2688</v>
       </c>
     </row>
-    <row r="184" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="12" t="s">
         <v>2488</v>
       </c>
@@ -17289,8 +17288,8 @@
       <c r="C184" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="D184" s="12" t="s">
-        <v>2504</v>
+      <c r="D184" s="12">
+        <v>1</v>
       </c>
       <c r="E184" s="12" t="s">
         <v>162</v>
@@ -17317,7 +17316,7 @@
         <v>2682</v>
       </c>
     </row>
-    <row r="185" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="12" t="s">
         <v>2488</v>
       </c>
@@ -17355,7 +17354,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="186" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="12" t="s">
         <v>2488</v>
       </c>
@@ -17393,7 +17392,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="187" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="12" t="s">
         <v>2488</v>
       </c>
@@ -17431,7 +17430,7 @@
         <v>2822</v>
       </c>
     </row>
-    <row r="188" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="12" t="s">
         <v>2488</v>
       </c>
@@ -17469,7 +17468,7 @@
         <v>2805</v>
       </c>
     </row>
-    <row r="189" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="12" t="s">
         <v>2488</v>
       </c>
@@ -17507,7 +17506,7 @@
         <v>3028</v>
       </c>
     </row>
-    <row r="190" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="12" t="s">
         <v>2488</v>
       </c>
@@ -17545,7 +17544,7 @@
         <v>3055</v>
       </c>
     </row>
-    <row r="191" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="12" t="s">
         <v>2488</v>
       </c>
@@ -17583,7 +17582,7 @@
         <v>3085</v>
       </c>
     </row>
-    <row r="192" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="12" t="s">
         <v>2488</v>
       </c>
@@ -17621,7 +17620,7 @@
         <v>3013</v>
       </c>
     </row>
-    <row r="193" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="12" t="s">
         <v>2488</v>
       </c>
@@ -17659,7 +17658,7 @@
         <v>3029</v>
       </c>
     </row>
-    <row r="194" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="12" t="s">
         <v>2488</v>
       </c>
@@ -17697,7 +17696,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="195" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="12" t="s">
         <v>2488</v>
       </c>
@@ -17735,7 +17734,7 @@
         <v>3042</v>
       </c>
     </row>
-    <row r="196" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="12" t="s">
         <v>2488</v>
       </c>
@@ -17773,7 +17772,7 @@
         <v>3026</v>
       </c>
     </row>
-    <row r="197" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="12" t="s">
         <v>2488</v>
       </c>
@@ -17811,7 +17810,7 @@
         <v>3058</v>
       </c>
     </row>
-    <row r="198" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="12" t="s">
         <v>2488</v>
       </c>
@@ -17849,7 +17848,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="199" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="12" t="s">
         <v>2488</v>
       </c>
@@ -17887,7 +17886,7 @@
         <v>3061</v>
       </c>
     </row>
-    <row r="200" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="12" t="s">
         <v>2488</v>
       </c>
@@ -17925,7 +17924,7 @@
         <v>3077</v>
       </c>
     </row>
-    <row r="201" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="12" t="s">
         <v>2488</v>
       </c>
@@ -17963,7 +17962,7 @@
         <v>3008</v>
       </c>
     </row>
-    <row r="202" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="12" t="s">
         <v>2488</v>
       </c>
@@ -18001,7 +18000,7 @@
         <v>3010</v>
       </c>
     </row>
-    <row r="203" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="12" t="s">
         <v>2488</v>
       </c>
@@ -18039,7 +18038,7 @@
         <v>3087</v>
       </c>
     </row>
-    <row r="204" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="12" t="s">
         <v>2488</v>
       </c>
@@ -18077,7 +18076,7 @@
         <v>3079</v>
       </c>
     </row>
-    <row r="205" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="12" t="s">
         <v>2488</v>
       </c>
@@ -18115,7 +18114,7 @@
         <v>3004</v>
       </c>
     </row>
-    <row r="206" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="12" t="s">
         <v>2488</v>
       </c>
@@ -18153,7 +18152,7 @@
         <v>2676</v>
       </c>
     </row>
-    <row r="207" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="12" t="s">
         <v>2488</v>
       </c>
@@ -18191,7 +18190,7 @@
         <v>2831</v>
       </c>
     </row>
-    <row r="208" spans="1:12" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:12" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="12" t="s">
         <v>2488</v>
       </c>
@@ -18229,7 +18228,7 @@
         <v>3071</v>
       </c>
     </row>
-    <row r="209" spans="1:12" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:12" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="12" t="s">
         <v>2488</v>
       </c>
@@ -18267,7 +18266,7 @@
         <v>2933</v>
       </c>
     </row>
-    <row r="210" spans="1:12" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:12" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="12" t="s">
         <v>2488</v>
       </c>
@@ -18305,7 +18304,7 @@
         <v>3041</v>
       </c>
     </row>
-    <row r="211" spans="1:12" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:12" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="12" t="s">
         <v>2488</v>
       </c>
@@ -18343,7 +18342,7 @@
         <v>3072</v>
       </c>
     </row>
-    <row r="212" spans="1:12" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:12" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="12" t="s">
         <v>2488</v>
       </c>
@@ -18381,7 +18380,7 @@
         <v>3081</v>
       </c>
     </row>
-    <row r="213" spans="1:12" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:12" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="12" t="s">
         <v>2488</v>
       </c>
@@ -18419,7 +18418,7 @@
         <v>2950</v>
       </c>
     </row>
-    <row r="214" spans="1:12" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:12" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="12" t="s">
         <v>2488</v>
       </c>
@@ -18457,7 +18456,7 @@
         <v>2795</v>
       </c>
     </row>
-    <row r="215" spans="1:12" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:12" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="12" t="s">
         <v>2488</v>
       </c>
@@ -18495,7 +18494,7 @@
         <v>2927</v>
       </c>
     </row>
-    <row r="216" spans="1:12" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:12" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="12" t="s">
         <v>2488</v>
       </c>
@@ -18533,7 +18532,7 @@
         <v>3074</v>
       </c>
     </row>
-    <row r="217" spans="1:12" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:12" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="12" t="s">
         <v>2488</v>
       </c>
@@ -18571,7 +18570,7 @@
         <v>3069</v>
       </c>
     </row>
-    <row r="218" spans="1:12" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:12" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="12" t="s">
         <v>2488</v>
       </c>
@@ -18609,7 +18608,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="219" spans="1:12" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:12" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="12" t="s">
         <v>2488</v>
       </c>
@@ -18647,7 +18646,7 @@
         <v>3039</v>
       </c>
     </row>
-    <row r="220" spans="1:12" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:12" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="12" t="s">
         <v>2488</v>
       </c>
@@ -18685,7 +18684,7 @@
         <v>2742</v>
       </c>
     </row>
-    <row r="221" spans="1:12" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:12" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="12" t="s">
         <v>2488</v>
       </c>
@@ -18723,7 +18722,7 @@
         <v>2728</v>
       </c>
     </row>
-    <row r="222" spans="1:12" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:12" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="12" t="s">
         <v>2488</v>
       </c>
@@ -18761,7 +18760,7 @@
         <v>2713</v>
       </c>
     </row>
-    <row r="223" spans="1:12" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:12" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="12" t="s">
         <v>2488</v>
       </c>
@@ -18799,7 +18798,7 @@
         <v>2745</v>
       </c>
     </row>
-    <row r="224" spans="1:12" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:12" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="12" t="s">
         <v>2488</v>
       </c>
@@ -18837,7 +18836,7 @@
         <v>2711</v>
       </c>
     </row>
-    <row r="225" spans="1:12" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:12" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="12" t="s">
         <v>2488</v>
       </c>
@@ -18875,7 +18874,7 @@
         <v>2925</v>
       </c>
     </row>
-    <row r="226" spans="1:12" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:12" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="12" t="s">
         <v>2488</v>
       </c>
@@ -18913,7 +18912,7 @@
         <v>2724</v>
       </c>
     </row>
-    <row r="227" spans="1:12" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:12" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="12" t="s">
         <v>2488</v>
       </c>
@@ -18951,7 +18950,7 @@
         <v>2746</v>
       </c>
     </row>
-    <row r="228" spans="1:12" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:12" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="12" t="s">
         <v>2488</v>
       </c>
@@ -18989,7 +18988,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="229" spans="1:12" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:12" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="12" t="s">
         <v>2488</v>
       </c>
@@ -19027,7 +19026,7 @@
         <v>2718</v>
       </c>
     </row>
-    <row r="230" spans="1:12" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:12" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="12" t="s">
         <v>2488</v>
       </c>
@@ -19065,7 +19064,7 @@
         <v>2782</v>
       </c>
     </row>
-    <row r="231" spans="1:12" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:12" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="12" t="s">
         <v>2488</v>
       </c>
@@ -19103,7 +19102,7 @@
         <v>2733</v>
       </c>
     </row>
-    <row r="232" spans="1:12" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:12" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="12" t="s">
         <v>2488</v>
       </c>
@@ -19141,7 +19140,7 @@
         <v>3070</v>
       </c>
     </row>
-    <row r="233" spans="1:12" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:12" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="12" t="s">
         <v>2488</v>
       </c>
@@ -19179,7 +19178,7 @@
         <v>2919</v>
       </c>
     </row>
-    <row r="234" spans="1:12" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:12" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="12" t="s">
         <v>2488</v>
       </c>
@@ -19217,7 +19216,7 @@
         <v>3076</v>
       </c>
     </row>
-    <row r="235" spans="1:12" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:12" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="12" t="s">
         <v>2488</v>
       </c>
@@ -19255,7 +19254,7 @@
         <v>2764</v>
       </c>
     </row>
-    <row r="236" spans="1:12" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:12" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="12" t="s">
         <v>2488</v>
       </c>
@@ -19293,7 +19292,7 @@
         <v>2929</v>
       </c>
     </row>
-    <row r="237" spans="1:12" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:12" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="12" t="s">
         <v>2488</v>
       </c>
@@ -19331,7 +19330,7 @@
         <v>2717</v>
       </c>
     </row>
-    <row r="238" spans="1:12" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:12" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="12" t="s">
         <v>2488</v>
       </c>
@@ -19369,7 +19368,7 @@
         <v>3038</v>
       </c>
     </row>
-    <row r="239" spans="1:12" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:12" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="12" t="s">
         <v>2488</v>
       </c>
@@ -19407,7 +19406,7 @@
         <v>2949</v>
       </c>
     </row>
-    <row r="240" spans="1:12" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:12" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="12" t="s">
         <v>2488</v>
       </c>
@@ -19445,7 +19444,7 @@
         <v>3062</v>
       </c>
     </row>
-    <row r="241" spans="1:12" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:12" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="12" t="s">
         <v>2488</v>
       </c>
@@ -19483,7 +19482,7 @@
         <v>2725</v>
       </c>
     </row>
-    <row r="242" spans="1:12" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:12" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="12" t="s">
         <v>2488</v>
       </c>
@@ -19521,7 +19520,7 @@
         <v>2775</v>
       </c>
     </row>
-    <row r="243" spans="1:12" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:12" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="12" t="s">
         <v>2488</v>
       </c>
@@ -19559,7 +19558,7 @@
         <v>3045</v>
       </c>
     </row>
-    <row r="244" spans="1:12" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:12" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="12" t="s">
         <v>2488</v>
       </c>
@@ -19593,7 +19592,7 @@
         <v>2636</v>
       </c>
     </row>
-    <row r="245" spans="1:12" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:12" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="12" t="s">
         <v>2488</v>
       </c>
@@ -19627,7 +19626,7 @@
         <v>2834</v>
       </c>
     </row>
-    <row r="246" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="12" t="s">
         <v>2488</v>
       </c>
@@ -19665,7 +19664,7 @@
         <v>2779</v>
       </c>
     </row>
-    <row r="247" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="12" t="s">
         <v>2488</v>
       </c>
@@ -19703,7 +19702,7 @@
         <v>2719</v>
       </c>
     </row>
-    <row r="248" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="12" t="s">
         <v>2488</v>
       </c>
@@ -19741,7 +19740,7 @@
         <v>2741</v>
       </c>
     </row>
-    <row r="249" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="12" t="s">
         <v>2488</v>
       </c>
@@ -19779,7 +19778,7 @@
         <v>2755</v>
       </c>
     </row>
-    <row r="250" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="12" t="s">
         <v>2488</v>
       </c>
@@ -19817,7 +19816,7 @@
         <v>2722</v>
       </c>
     </row>
-    <row r="251" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="12" t="s">
         <v>2488</v>
       </c>
@@ -19855,7 +19854,7 @@
         <v>2774</v>
       </c>
     </row>
-    <row r="252" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="12" t="s">
         <v>2488</v>
       </c>
@@ -19893,7 +19892,7 @@
         <v>2787</v>
       </c>
     </row>
-    <row r="253" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="12" t="s">
         <v>2488</v>
       </c>
@@ -19931,7 +19930,7 @@
         <v>2762</v>
       </c>
     </row>
-    <row r="254" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="12" t="s">
         <v>2488</v>
       </c>
@@ -19969,7 +19968,7 @@
         <v>2747</v>
       </c>
     </row>
-    <row r="255" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="12" t="s">
         <v>2488</v>
       </c>
@@ -20007,7 +20006,7 @@
         <v>2850</v>
       </c>
     </row>
-    <row r="256" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="12" t="s">
         <v>2488</v>
       </c>
@@ -20045,7 +20044,7 @@
         <v>2930</v>
       </c>
     </row>
-    <row r="257" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="12" t="s">
         <v>2488</v>
       </c>
@@ -20083,7 +20082,7 @@
         <v>2963</v>
       </c>
     </row>
-    <row r="258" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="12" t="s">
         <v>2488</v>
       </c>
@@ -20121,7 +20120,7 @@
         <v>2895</v>
       </c>
     </row>
-    <row r="259" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="12" t="s">
         <v>2488</v>
       </c>
@@ -20159,7 +20158,7 @@
         <v>2945</v>
       </c>
     </row>
-    <row r="260" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="12" t="s">
         <v>2488</v>
       </c>
@@ -20197,7 +20196,7 @@
         <v>3048</v>
       </c>
     </row>
-    <row r="261" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="12" t="s">
         <v>2488</v>
       </c>
@@ -20235,7 +20234,7 @@
         <v>2957</v>
       </c>
     </row>
-    <row r="262" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="12" t="s">
         <v>2488</v>
       </c>
@@ -20273,7 +20272,7 @@
         <v>3063</v>
       </c>
     </row>
-    <row r="263" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="12" t="s">
         <v>2488</v>
       </c>
@@ -20311,7 +20310,7 @@
         <v>3037</v>
       </c>
     </row>
-    <row r="264" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="12" t="s">
         <v>2488</v>
       </c>
@@ -20349,7 +20348,7 @@
         <v>3057</v>
       </c>
     </row>
-    <row r="265" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="12" t="s">
         <v>2488</v>
       </c>
@@ -20387,7 +20386,7 @@
         <v>3049</v>
       </c>
     </row>
-    <row r="266" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="12" t="s">
         <v>2488</v>
       </c>
@@ -20425,7 +20424,7 @@
         <v>3122</v>
       </c>
     </row>
-    <row r="267" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="12" t="s">
         <v>2488</v>
       </c>
@@ -20463,7 +20462,7 @@
         <v>3112</v>
       </c>
     </row>
-    <row r="268" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="12" t="s">
         <v>2488</v>
       </c>
@@ -20501,7 +20500,7 @@
         <v>3125</v>
       </c>
     </row>
-    <row r="269" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="12" t="s">
         <v>2488</v>
       </c>
@@ -20539,7 +20538,7 @@
         <v>3132</v>
       </c>
     </row>
-    <row r="270" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="12" t="s">
         <v>2488</v>
       </c>
@@ -20577,7 +20576,7 @@
         <v>2634</v>
       </c>
     </row>
-    <row r="271" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="12" t="s">
         <v>2488</v>
       </c>
@@ -20615,7 +20614,7 @@
         <v>2833</v>
       </c>
     </row>
-    <row r="272" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="12" t="s">
         <v>2488</v>
       </c>
@@ -20653,7 +20652,7 @@
         <v>2792</v>
       </c>
     </row>
-    <row r="273" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="12" t="s">
         <v>2488</v>
       </c>
@@ -20691,7 +20690,7 @@
         <v>3044</v>
       </c>
     </row>
-    <row r="274" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="12" t="s">
         <v>2488</v>
       </c>
@@ -20729,7 +20728,7 @@
         <v>3066</v>
       </c>
     </row>
-    <row r="275" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="12" t="s">
         <v>2488</v>
       </c>
@@ -20767,7 +20766,7 @@
         <v>3068</v>
       </c>
     </row>
-    <row r="276" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="12" t="s">
         <v>2488</v>
       </c>
@@ -20805,7 +20804,7 @@
         <v>3036</v>
       </c>
     </row>
-    <row r="277" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="12" t="s">
         <v>2488</v>
       </c>
@@ -20843,7 +20842,7 @@
         <v>3078</v>
       </c>
     </row>
-    <row r="278" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="12" t="s">
         <v>2488</v>
       </c>
@@ -20881,7 +20880,7 @@
         <v>3121</v>
       </c>
     </row>
-    <row r="279" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="12" t="s">
         <v>2488</v>
       </c>
@@ -20919,7 +20918,7 @@
         <v>3047</v>
       </c>
     </row>
-    <row r="280" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="12" t="s">
         <v>2488</v>
       </c>
@@ -20957,7 +20956,7 @@
         <v>2790</v>
       </c>
     </row>
-    <row r="281" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="12" t="s">
         <v>2488</v>
       </c>
@@ -20995,7 +20994,7 @@
         <v>3080</v>
       </c>
     </row>
-    <row r="282" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="12" t="s">
         <v>2488</v>
       </c>
@@ -21033,7 +21032,7 @@
         <v>2810</v>
       </c>
     </row>
-    <row r="283" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="12" t="s">
         <v>2488</v>
       </c>
@@ -21071,7 +21070,7 @@
         <v>3054</v>
       </c>
     </row>
-    <row r="284" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="12" t="s">
         <v>2488</v>
       </c>
@@ -21109,7 +21108,7 @@
         <v>3050</v>
       </c>
     </row>
-    <row r="285" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="12" t="s">
         <v>2488</v>
       </c>
@@ -21147,7 +21146,7 @@
         <v>3064</v>
       </c>
     </row>
-    <row r="286" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="12" t="s">
         <v>2488</v>
       </c>
@@ -21185,7 +21184,7 @@
         <v>2823</v>
       </c>
     </row>
-    <row r="287" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="12" t="s">
         <v>2488</v>
       </c>
@@ -21223,7 +21222,7 @@
         <v>3046</v>
       </c>
     </row>
-    <row r="288" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="12" t="s">
         <v>2488</v>
       </c>
@@ -21261,7 +21260,7 @@
         <v>2808</v>
       </c>
     </row>
-    <row r="289" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="12" t="s">
         <v>2488</v>
       </c>
@@ -21299,7 +21298,7 @@
         <v>3043</v>
       </c>
     </row>
-    <row r="290" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="12" t="s">
         <v>2488</v>
       </c>
@@ -21337,7 +21336,7 @@
         <v>2802</v>
       </c>
     </row>
-    <row r="291" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="12" t="s">
         <v>2488</v>
       </c>
@@ -21375,7 +21374,7 @@
         <v>3053</v>
       </c>
     </row>
-    <row r="292" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="12" t="s">
         <v>2488</v>
       </c>
@@ -21413,7 +21412,7 @@
         <v>3052</v>
       </c>
     </row>
-    <row r="293" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="12" t="s">
         <v>2488</v>
       </c>
@@ -21451,7 +21450,7 @@
         <v>2856</v>
       </c>
     </row>
-    <row r="294" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="12" t="s">
         <v>2488</v>
       </c>
@@ -21489,7 +21488,7 @@
         <v>3067</v>
       </c>
     </row>
-    <row r="295" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="12" t="s">
         <v>2488</v>
       </c>
@@ -21527,7 +21526,7 @@
         <v>2789</v>
       </c>
     </row>
-    <row r="296" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="12" t="s">
         <v>2488</v>
       </c>
@@ -21565,7 +21564,7 @@
         <v>3118</v>
       </c>
     </row>
-    <row r="297" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="12" t="s">
         <v>2488</v>
       </c>
@@ -21603,7 +21602,7 @@
         <v>3051</v>
       </c>
     </row>
-    <row r="298" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="12" t="s">
         <v>2488</v>
       </c>
@@ -21641,7 +21640,7 @@
         <v>3073</v>
       </c>
     </row>
-    <row r="299" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="12" t="s">
         <v>2488</v>
       </c>
@@ -21679,7 +21678,7 @@
         <v>2817</v>
       </c>
     </row>
-    <row r="300" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="12" t="s">
         <v>2488</v>
       </c>
@@ -21717,7 +21716,7 @@
         <v>2675</v>
       </c>
     </row>
-    <row r="301" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="12" t="s">
         <v>2488</v>
       </c>
@@ -21755,7 +21754,7 @@
         <v>2832</v>
       </c>
     </row>
-    <row r="302" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="12" t="s">
         <v>2488</v>
       </c>
@@ -21793,7 +21792,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="303" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="12" t="s">
         <v>2488</v>
       </c>
@@ -21831,7 +21830,7 @@
         <v>3140</v>
       </c>
     </row>
-    <row r="304" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="12" t="s">
         <v>2488</v>
       </c>
@@ -21865,7 +21864,7 @@
         <v>2535</v>
       </c>
     </row>
-    <row r="305" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="12" t="s">
         <v>2488</v>
       </c>
@@ -21899,7 +21898,7 @@
         <v>2969</v>
       </c>
     </row>
-    <row r="306" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="12" t="s">
         <v>2488</v>
       </c>
@@ -21937,7 +21936,7 @@
         <v>2804</v>
       </c>
     </row>
-    <row r="307" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="12" t="s">
         <v>2488</v>
       </c>
@@ -21975,7 +21974,7 @@
         <v>2986</v>
       </c>
     </row>
-    <row r="308" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="12" t="s">
         <v>2488</v>
       </c>
@@ -22013,7 +22012,7 @@
         <v>3096</v>
       </c>
     </row>
-    <row r="309" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="12" t="s">
         <v>2488</v>
       </c>
@@ -22051,7 +22050,7 @@
         <v>2978</v>
       </c>
     </row>
-    <row r="310" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="12" t="s">
         <v>2488</v>
       </c>
@@ -22089,7 +22088,7 @@
         <v>2793</v>
       </c>
     </row>
-    <row r="311" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="12" t="s">
         <v>2488</v>
       </c>
@@ -22127,7 +22126,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="312" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="12" t="s">
         <v>2488</v>
       </c>
@@ -22165,7 +22164,7 @@
         <v>2995</v>
       </c>
     </row>
-    <row r="313" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="12" t="s">
         <v>2488</v>
       </c>
@@ -22203,7 +22202,7 @@
         <v>3107</v>
       </c>
     </row>
-    <row r="314" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="12" t="s">
         <v>2488</v>
       </c>
@@ -22241,7 +22240,7 @@
         <v>2791</v>
       </c>
     </row>
-    <row r="315" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="12" t="s">
         <v>2488</v>
       </c>
@@ -22279,7 +22278,7 @@
         <v>3075</v>
       </c>
     </row>
-    <row r="316" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="12" t="s">
         <v>2488</v>
       </c>
@@ -22317,7 +22316,7 @@
         <v>3092</v>
       </c>
     </row>
-    <row r="317" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="12" t="s">
         <v>2488</v>
       </c>
@@ -22355,7 +22354,7 @@
         <v>3009</v>
       </c>
     </row>
-    <row r="318" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="12" t="s">
         <v>2488</v>
       </c>
@@ -22393,7 +22392,7 @@
         <v>2980</v>
       </c>
     </row>
-    <row r="319" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="12" t="s">
         <v>2488</v>
       </c>
@@ -22431,7 +22430,7 @@
         <v>2794</v>
       </c>
     </row>
-    <row r="320" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="12" t="s">
         <v>2488</v>
       </c>
@@ -22469,7 +22468,7 @@
         <v>2975</v>
       </c>
     </row>
-    <row r="321" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="12" t="s">
         <v>2488</v>
       </c>
@@ -22507,7 +22506,7 @@
         <v>3146</v>
       </c>
     </row>
-    <row r="322" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="12" t="s">
         <v>2488</v>
       </c>
@@ -22545,7 +22544,7 @@
         <v>2814</v>
       </c>
     </row>
-    <row r="323" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="12" t="s">
         <v>2488</v>
       </c>
@@ -22583,7 +22582,7 @@
         <v>3002</v>
       </c>
     </row>
-    <row r="324" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="12" t="s">
         <v>2488</v>
       </c>
@@ -22621,7 +22620,7 @@
         <v>3086</v>
       </c>
     </row>
-    <row r="325" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="12" t="s">
         <v>2488</v>
       </c>
@@ -22659,7 +22658,7 @@
         <v>3089</v>
       </c>
     </row>
-    <row r="326" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="12" t="s">
         <v>2488</v>
       </c>
@@ -22697,7 +22696,7 @@
         <v>2976</v>
       </c>
     </row>
-    <row r="327" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="12" t="s">
         <v>2488</v>
       </c>
@@ -22735,7 +22734,7 @@
         <v>3108</v>
       </c>
     </row>
-    <row r="328" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="12" t="s">
         <v>2488</v>
       </c>
@@ -22773,7 +22772,7 @@
         <v>2839</v>
       </c>
     </row>
-    <row r="329" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="12" t="s">
         <v>2488</v>
       </c>
@@ -22811,7 +22810,7 @@
         <v>2838</v>
       </c>
     </row>
-    <row r="330" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="12" t="s">
         <v>2488</v>
       </c>
@@ -22849,7 +22848,7 @@
         <v>2784</v>
       </c>
     </row>
-    <row r="331" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="12" t="s">
         <v>2488</v>
       </c>
@@ -22887,7 +22886,7 @@
         <v>3022</v>
       </c>
     </row>
-    <row r="332" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="12" t="s">
         <v>2488</v>
       </c>
@@ -22925,7 +22924,7 @@
         <v>3101</v>
       </c>
     </row>
-    <row r="333" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="12" t="s">
         <v>2488</v>
       </c>
@@ -22963,7 +22962,7 @@
         <v>2993</v>
       </c>
     </row>
-    <row r="334" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="12" t="s">
         <v>2488</v>
       </c>
@@ -23001,7 +23000,7 @@
         <v>2971</v>
       </c>
     </row>
-    <row r="335" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="12" t="s">
         <v>2488</v>
       </c>
@@ -23039,7 +23038,7 @@
         <v>2988</v>
       </c>
     </row>
-    <row r="336" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="12" t="s">
         <v>2488</v>
       </c>
@@ -23077,7 +23076,7 @@
         <v>2826</v>
       </c>
     </row>
-    <row r="337" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="12" t="s">
         <v>2488</v>
       </c>
@@ -23115,7 +23114,7 @@
         <v>3003</v>
       </c>
     </row>
-    <row r="338" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="12" t="s">
         <v>2488</v>
       </c>
@@ -23153,7 +23152,7 @@
         <v>3120</v>
       </c>
     </row>
-    <row r="339" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="12" t="s">
         <v>2488</v>
       </c>
@@ -23191,7 +23190,7 @@
         <v>2844</v>
       </c>
     </row>
-    <row r="340" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="12" t="s">
         <v>2488</v>
       </c>
@@ -23229,7 +23228,7 @@
         <v>3021</v>
       </c>
     </row>
-    <row r="341" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="12" t="s">
         <v>2488</v>
       </c>
@@ -23267,7 +23266,7 @@
         <v>3035</v>
       </c>
     </row>
-    <row r="342" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="12" t="s">
         <v>2488</v>
       </c>
@@ -23305,7 +23304,7 @@
         <v>3090</v>
       </c>
     </row>
-    <row r="343" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="12" t="s">
         <v>2488</v>
       </c>
@@ -23343,7 +23342,7 @@
         <v>3024</v>
       </c>
     </row>
-    <row r="344" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="12" t="s">
         <v>2488</v>
       </c>
@@ -23381,7 +23380,7 @@
         <v>3134</v>
       </c>
     </row>
-    <row r="345" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="12" t="s">
         <v>2488</v>
       </c>
@@ -23419,7 +23418,7 @@
         <v>2799</v>
       </c>
     </row>
-    <row r="346" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="12" t="s">
         <v>2488</v>
       </c>
@@ -23457,7 +23456,7 @@
         <v>3017</v>
       </c>
     </row>
-    <row r="347" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="12" t="s">
         <v>2488</v>
       </c>
@@ -23495,7 +23494,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="348" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="12" t="s">
         <v>2488</v>
       </c>
@@ -23533,7 +23532,7 @@
         <v>3023</v>
       </c>
     </row>
-    <row r="349" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="12" t="s">
         <v>2488</v>
       </c>
@@ -23571,7 +23570,7 @@
         <v>2783</v>
       </c>
     </row>
-    <row r="350" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="12" t="s">
         <v>2488</v>
       </c>
@@ -23609,7 +23608,7 @@
         <v>3033</v>
       </c>
     </row>
-    <row r="351" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="12" t="s">
         <v>2488</v>
       </c>
@@ -23647,7 +23646,7 @@
         <v>3119</v>
       </c>
     </row>
-    <row r="352" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="12" t="s">
         <v>2488</v>
       </c>
@@ -23685,7 +23684,7 @@
         <v>2836</v>
       </c>
     </row>
-    <row r="353" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="12" t="s">
         <v>2488</v>
       </c>
@@ -23723,7 +23722,7 @@
         <v>2837</v>
       </c>
     </row>
-    <row r="354" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="12" t="s">
         <v>2488</v>
       </c>
@@ -23761,7 +23760,7 @@
         <v>2706</v>
       </c>
     </row>
-    <row r="355" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="12" t="s">
         <v>2488</v>
       </c>
@@ -23799,7 +23798,7 @@
         <v>2797</v>
       </c>
     </row>
-    <row r="356" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="12" t="s">
         <v>2488</v>
       </c>
@@ -23837,7 +23836,7 @@
         <v>2816</v>
       </c>
     </row>
-    <row r="357" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="12" t="s">
         <v>2488</v>
       </c>
@@ -23875,7 +23874,7 @@
         <v>2796</v>
       </c>
     </row>
-    <row r="358" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="12" t="s">
         <v>2488</v>
       </c>
@@ -23913,7 +23912,7 @@
         <v>2801</v>
       </c>
     </row>
-    <row r="359" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="12" t="s">
         <v>2488</v>
       </c>
@@ -23951,7 +23950,7 @@
         <v>2798</v>
       </c>
     </row>
-    <row r="360" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="12" t="s">
         <v>2488</v>
       </c>
@@ -23989,7 +23988,7 @@
         <v>2788</v>
       </c>
     </row>
-    <row r="361" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="12" t="s">
         <v>2488</v>
       </c>
@@ -24027,7 +24026,7 @@
         <v>2806</v>
       </c>
     </row>
-    <row r="362" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="12" t="s">
         <v>2488</v>
       </c>
@@ -24065,7 +24064,7 @@
         <v>2824</v>
       </c>
     </row>
-    <row r="363" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="12" t="s">
         <v>2488</v>
       </c>
@@ -24103,7 +24102,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="364" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="12" t="s">
         <v>2488</v>
       </c>
@@ -24141,7 +24140,7 @@
         <v>2847</v>
       </c>
     </row>
-    <row r="365" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="12" t="s">
         <v>2488</v>
       </c>
@@ -24179,7 +24178,7 @@
         <v>2843</v>
       </c>
     </row>
-    <row r="366" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="12" t="s">
         <v>2488</v>
       </c>
@@ -24217,7 +24216,7 @@
         <v>2811</v>
       </c>
     </row>
-    <row r="367" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="12" t="s">
         <v>2488</v>
       </c>
@@ -24255,7 +24254,7 @@
         <v>2813</v>
       </c>
     </row>
-    <row r="368" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="12" t="s">
         <v>2488</v>
       </c>
@@ -24293,7 +24292,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="369" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="12" t="s">
         <v>2488</v>
       </c>
@@ -24331,7 +24330,7 @@
         <v>2803</v>
       </c>
     </row>
-    <row r="370" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="12" t="s">
         <v>2488</v>
       </c>
@@ -24369,7 +24368,7 @@
         <v>2981</v>
       </c>
     </row>
-    <row r="371" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="12" t="s">
         <v>2488</v>
       </c>
@@ -24407,7 +24406,7 @@
         <v>2809</v>
       </c>
     </row>
-    <row r="372" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="12" t="s">
         <v>2488</v>
       </c>
@@ -24445,7 +24444,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="373" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="12" t="s">
         <v>2488</v>
       </c>
@@ -24483,7 +24482,7 @@
         <v>3102</v>
       </c>
     </row>
-    <row r="374" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="12" t="s">
         <v>2488</v>
       </c>
@@ -24521,7 +24520,7 @@
         <v>2985</v>
       </c>
     </row>
-    <row r="375" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="12" t="s">
         <v>2488</v>
       </c>
@@ -24559,7 +24558,7 @@
         <v>3095</v>
       </c>
     </row>
-    <row r="376" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="12" t="s">
         <v>2488</v>
       </c>
@@ -24597,7 +24596,7 @@
         <v>3091</v>
       </c>
     </row>
-    <row r="377" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="12" t="s">
         <v>2488</v>
       </c>
@@ -24635,7 +24634,7 @@
         <v>3034</v>
       </c>
     </row>
-    <row r="378" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="12" t="s">
         <v>2488</v>
       </c>
@@ -24673,7 +24672,7 @@
         <v>3011</v>
       </c>
     </row>
-    <row r="379" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="12" t="s">
         <v>2488</v>
       </c>
@@ -24711,7 +24710,7 @@
         <v>3025</v>
       </c>
     </row>
-    <row r="380" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="12" t="s">
         <v>2488</v>
       </c>
@@ -24749,7 +24748,7 @@
         <v>3012</v>
       </c>
     </row>
-    <row r="381" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="12" t="s">
         <v>2488</v>
       </c>
@@ -24787,7 +24786,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="382" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="12" t="s">
         <v>2488</v>
       </c>
@@ -24825,7 +24824,7 @@
         <v>2997</v>
       </c>
     </row>
-    <row r="383" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="12" t="s">
         <v>2488</v>
       </c>
@@ -24863,7 +24862,7 @@
         <v>2999</v>
       </c>
     </row>
-    <row r="384" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="12" t="s">
         <v>2488</v>
       </c>
@@ -24901,7 +24900,7 @@
         <v>3007</v>
       </c>
     </row>
-    <row r="385" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="12" t="s">
         <v>2488</v>
       </c>
@@ -24939,7 +24938,7 @@
         <v>3014</v>
       </c>
     </row>
-    <row r="386" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="12" t="s">
         <v>2488</v>
       </c>
@@ -24977,7 +24976,7 @@
         <v>3083</v>
       </c>
     </row>
-    <row r="387" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="12" t="s">
         <v>2488</v>
       </c>
@@ -25015,7 +25014,7 @@
         <v>3018</v>
       </c>
     </row>
-    <row r="388" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="12" t="s">
         <v>2488</v>
       </c>
@@ -25053,7 +25052,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="389" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="12" t="s">
         <v>2488</v>
       </c>
@@ -25091,7 +25090,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="390" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="12" t="s">
         <v>2488</v>
       </c>
@@ -25129,7 +25128,7 @@
         <v>2987</v>
       </c>
     </row>
-    <row r="391" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="12" t="s">
         <v>2488</v>
       </c>
@@ -25167,7 +25166,7 @@
         <v>3114</v>
       </c>
     </row>
-    <row r="392" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="12" t="s">
         <v>2488</v>
       </c>
@@ -25205,7 +25204,7 @@
         <v>3135</v>
       </c>
     </row>
-    <row r="393" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="12" t="s">
         <v>2488</v>
       </c>
@@ -25243,7 +25242,7 @@
         <v>3104</v>
       </c>
     </row>
-    <row r="394" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="12" t="s">
         <v>2488</v>
       </c>
@@ -25281,7 +25280,7 @@
         <v>3005</v>
       </c>
     </row>
-    <row r="395" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="12" t="s">
         <v>2488</v>
       </c>
@@ -25319,7 +25318,7 @@
         <v>3099</v>
       </c>
     </row>
-    <row r="396" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="12" t="s">
         <v>2488</v>
       </c>
@@ -25357,7 +25356,7 @@
         <v>2973</v>
       </c>
     </row>
-    <row r="397" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="12" t="s">
         <v>2488</v>
       </c>
@@ -25395,7 +25394,7 @@
         <v>3100</v>
       </c>
     </row>
-    <row r="398" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="12" t="s">
         <v>2488</v>
       </c>
@@ -25433,7 +25432,7 @@
         <v>3094</v>
       </c>
     </row>
-    <row r="399" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="12" t="s">
         <v>2488</v>
       </c>
@@ -25471,7 +25470,7 @@
         <v>3088</v>
       </c>
     </row>
-    <row r="400" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="12" t="s">
         <v>2488</v>
       </c>
@@ -25509,7 +25508,7 @@
         <v>2982</v>
       </c>
     </row>
-    <row r="401" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="12" t="s">
         <v>2488</v>
       </c>
@@ -25547,7 +25546,7 @@
         <v>2977</v>
       </c>
     </row>
-    <row r="402" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="12" t="s">
         <v>2488</v>
       </c>
@@ -25585,7 +25584,7 @@
         <v>3027</v>
       </c>
     </row>
-    <row r="403" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="12" t="s">
         <v>2488</v>
       </c>
@@ -25623,7 +25622,7 @@
         <v>2970</v>
       </c>
     </row>
-    <row r="404" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="12" t="s">
         <v>2488</v>
       </c>
@@ -25661,7 +25660,7 @@
         <v>3019</v>
       </c>
     </row>
-    <row r="405" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="12" t="s">
         <v>2488</v>
       </c>
@@ -25699,7 +25698,7 @@
         <v>3015</v>
       </c>
     </row>
-    <row r="406" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="12" t="s">
         <v>2488</v>
       </c>
@@ -25737,7 +25736,7 @@
         <v>2968</v>
       </c>
     </row>
-    <row r="407" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="12" t="s">
         <v>2488</v>
       </c>
@@ -25775,7 +25774,7 @@
         <v>2983</v>
       </c>
     </row>
-    <row r="408" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="12" t="s">
         <v>2488</v>
       </c>
@@ -25813,7 +25812,7 @@
         <v>3141</v>
       </c>
     </row>
-    <row r="409" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="12" t="s">
         <v>2488</v>
       </c>
@@ -25851,7 +25850,7 @@
         <v>3142</v>
       </c>
     </row>
-    <row r="410" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="12" t="s">
         <v>2488</v>
       </c>
@@ -25889,7 +25888,7 @@
         <v>2984</v>
       </c>
     </row>
-    <row r="411" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="12" t="s">
         <v>2488</v>
       </c>
@@ -25927,7 +25926,7 @@
         <v>2835</v>
       </c>
     </row>
-    <row r="412" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="12" t="s">
         <v>2488</v>
       </c>
@@ -25965,7 +25964,7 @@
         <v>2650</v>
       </c>
     </row>
-    <row r="413" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="12" t="s">
         <v>2488</v>
       </c>
@@ -26003,7 +26002,7 @@
         <v>2818</v>
       </c>
     </row>
-    <row r="414" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="12" t="s">
         <v>2488</v>
       </c>
@@ -26041,7 +26040,7 @@
         <v>3006</v>
       </c>
     </row>
-    <row r="415" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="12" t="s">
         <v>2488</v>
       </c>
@@ -26079,7 +26078,7 @@
         <v>2991</v>
       </c>
     </row>
-    <row r="416" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="12" t="s">
         <v>2488</v>
       </c>
@@ -26117,7 +26116,7 @@
         <v>2812</v>
       </c>
     </row>
-    <row r="417" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="12" t="s">
         <v>2488</v>
       </c>
@@ -26155,7 +26154,7 @@
         <v>3103</v>
       </c>
     </row>
-    <row r="418" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="12" t="s">
         <v>2488</v>
       </c>
@@ -26193,7 +26192,7 @@
         <v>3016</v>
       </c>
     </row>
-    <row r="419" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="12" t="s">
         <v>2488</v>
       </c>
@@ -26231,7 +26230,7 @@
         <v>2819</v>
       </c>
     </row>
-    <row r="420" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="12" t="s">
         <v>2488</v>
       </c>
@@ -26269,7 +26268,7 @@
         <v>3030</v>
       </c>
     </row>
-    <row r="421" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="12" t="s">
         <v>2488</v>
       </c>
@@ -26307,7 +26306,7 @@
         <v>3097</v>
       </c>
     </row>
-    <row r="422" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="12" t="s">
         <v>2488</v>
       </c>
@@ -26345,7 +26344,7 @@
         <v>2990</v>
       </c>
     </row>
-    <row r="423" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="12" t="s">
         <v>2488</v>
       </c>
@@ -26383,7 +26382,7 @@
         <v>2821</v>
       </c>
     </row>
-    <row r="424" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="12" t="s">
         <v>2488</v>
       </c>
@@ -26421,7 +26420,7 @@
         <v>2996</v>
       </c>
     </row>
-    <row r="425" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="12" t="s">
         <v>2488</v>
       </c>
@@ -26459,7 +26458,7 @@
         <v>3082</v>
       </c>
     </row>
-    <row r="426" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="12" t="s">
         <v>2488</v>
       </c>
@@ -26497,7 +26496,7 @@
         <v>3032</v>
       </c>
     </row>
-    <row r="427" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="12" t="s">
         <v>2488</v>
       </c>
@@ -26535,7 +26534,7 @@
         <v>3031</v>
       </c>
     </row>
-    <row r="428" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="12" t="s">
         <v>2488</v>
       </c>
@@ -26573,7 +26572,7 @@
         <v>2815</v>
       </c>
     </row>
-    <row r="429" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="12" t="s">
         <v>2488</v>
       </c>
@@ -26611,7 +26610,7 @@
         <v>3020</v>
       </c>
     </row>
-    <row r="430" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="12" t="s">
         <v>2488</v>
       </c>
@@ -26649,7 +26648,7 @@
         <v>2840</v>
       </c>
     </row>
-    <row r="431" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="12" t="s">
         <v>2488</v>
       </c>
@@ -26687,7 +26686,7 @@
         <v>2644</v>
       </c>
     </row>
-    <row r="432" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="12" t="s">
         <v>2488</v>
       </c>
@@ -26721,7 +26720,7 @@
         <v>2820</v>
       </c>
     </row>
-    <row r="433" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="12" t="s">
         <v>2488</v>
       </c>
@@ -26755,7 +26754,7 @@
         <v>2845</v>
       </c>
     </row>
-    <row r="434" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="12" t="s">
         <v>2488</v>
       </c>
@@ -26793,7 +26792,7 @@
         <v>2710</v>
       </c>
     </row>
-    <row r="435" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="12" t="s">
         <v>2488</v>
       </c>
@@ -26831,7 +26830,7 @@
         <v>2759</v>
       </c>
     </row>
-    <row r="436" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="12" t="s">
         <v>2488</v>
       </c>
@@ -26869,7 +26868,7 @@
         <v>2744</v>
       </c>
     </row>
-    <row r="437" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="12" t="s">
         <v>2488</v>
       </c>
@@ -26907,7 +26906,7 @@
         <v>2732</v>
       </c>
     </row>
-    <row r="438" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="12" t="s">
         <v>2488</v>
       </c>
@@ -26945,7 +26944,7 @@
         <v>2781</v>
       </c>
     </row>
-    <row r="439" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="12" t="s">
         <v>2488</v>
       </c>
@@ -26983,7 +26982,7 @@
         <v>2760</v>
       </c>
     </row>
-    <row r="440" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="12" t="s">
         <v>2488</v>
       </c>
@@ -27021,7 +27020,7 @@
         <v>2853</v>
       </c>
     </row>
-    <row r="441" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="12" t="s">
         <v>2488</v>
       </c>
@@ -27059,7 +27058,7 @@
         <v>2752</v>
       </c>
     </row>
-    <row r="442" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="12" t="s">
         <v>2488</v>
       </c>
@@ -27097,7 +27096,7 @@
         <v>2738</v>
       </c>
     </row>
-    <row r="443" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="12" t="s">
         <v>2488</v>
       </c>
@@ -27135,7 +27134,7 @@
         <v>2753</v>
       </c>
     </row>
-    <row r="444" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="12" t="s">
         <v>2488</v>
       </c>
@@ -27173,7 +27172,7 @@
         <v>2773</v>
       </c>
     </row>
-    <row r="445" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="12" t="s">
         <v>2488</v>
       </c>
@@ -27211,7 +27210,7 @@
         <v>2848</v>
       </c>
     </row>
-    <row r="446" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="12" t="s">
         <v>2488</v>
       </c>
@@ -27249,7 +27248,7 @@
         <v>2829</v>
       </c>
     </row>
-    <row r="447" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="12" t="s">
         <v>2488</v>
       </c>
@@ -27287,7 +27286,7 @@
         <v>2687</v>
       </c>
     </row>
-    <row r="448" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="12" t="s">
         <v>2488</v>
       </c>
@@ -27325,7 +27324,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="449" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="12" t="s">
         <v>2488</v>
       </c>
@@ -27363,7 +27362,7 @@
         <v>2943</v>
       </c>
     </row>
-    <row r="450" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="12" t="s">
         <v>2488</v>
       </c>
@@ -27401,7 +27400,7 @@
         <v>2956</v>
       </c>
     </row>
-    <row r="451" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="12" t="s">
         <v>2488</v>
       </c>
@@ -27439,7 +27438,7 @@
         <v>2868</v>
       </c>
     </row>
-    <row r="452" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="12" t="s">
         <v>2488</v>
       </c>
@@ -27477,7 +27476,7 @@
         <v>2877</v>
       </c>
     </row>
-    <row r="453" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="12" t="s">
         <v>2488</v>
       </c>
@@ -27515,7 +27514,7 @@
         <v>2859</v>
       </c>
     </row>
-    <row r="454" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="12" t="s">
         <v>2488</v>
       </c>
@@ -27553,7 +27552,7 @@
         <v>3128</v>
       </c>
     </row>
-    <row r="455" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="12" t="s">
         <v>2488</v>
       </c>
@@ -27591,7 +27590,7 @@
         <v>2940</v>
       </c>
     </row>
-    <row r="456" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="12" t="s">
         <v>2488</v>
       </c>
@@ -27629,7 +27628,7 @@
         <v>2907</v>
       </c>
     </row>
-    <row r="457" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="12" t="s">
         <v>2488</v>
       </c>
@@ -27667,7 +27666,7 @@
         <v>2866</v>
       </c>
     </row>
-    <row r="458" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="12" t="s">
         <v>2488</v>
       </c>
@@ -27705,7 +27704,7 @@
         <v>3131</v>
       </c>
     </row>
-    <row r="459" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="12" t="s">
         <v>2488</v>
       </c>
@@ -27743,7 +27742,7 @@
         <v>2908</v>
       </c>
     </row>
-    <row r="460" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="12" t="s">
         <v>2488</v>
       </c>
@@ -27781,7 +27780,7 @@
         <v>3133</v>
       </c>
     </row>
-    <row r="461" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="12" t="s">
         <v>2488</v>
       </c>
@@ -27819,7 +27818,7 @@
         <v>2902</v>
       </c>
     </row>
-    <row r="462" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="12" t="s">
         <v>2488</v>
       </c>
@@ -27857,7 +27856,7 @@
         <v>2935</v>
       </c>
     </row>
-    <row r="463" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="12" t="s">
         <v>2488</v>
       </c>
@@ -27895,7 +27894,7 @@
         <v>2894</v>
       </c>
     </row>
-    <row r="464" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="12" t="s">
         <v>2488</v>
       </c>
@@ -27933,7 +27932,7 @@
         <v>2920</v>
       </c>
     </row>
-    <row r="465" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="12" t="s">
         <v>2488</v>
       </c>
@@ -27971,7 +27970,7 @@
         <v>3059</v>
       </c>
     </row>
-    <row r="466" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="12" t="s">
         <v>2488</v>
       </c>
@@ -28009,7 +28008,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="467" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="12" t="s">
         <v>2488</v>
       </c>
@@ -28047,7 +28046,7 @@
         <v>3138</v>
       </c>
     </row>
-    <row r="468" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="12" t="s">
         <v>2488</v>
       </c>
@@ -28085,7 +28084,7 @@
         <v>3139</v>
       </c>
     </row>
-    <row r="469" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="12" t="s">
         <v>2488</v>
       </c>
@@ -28123,7 +28122,7 @@
         <v>2712</v>
       </c>
     </row>
-    <row r="470" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="12" t="s">
         <v>2488</v>
       </c>
@@ -28161,7 +28160,7 @@
         <v>2887</v>
       </c>
     </row>
-    <row r="471" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="12" t="s">
         <v>2488</v>
       </c>
@@ -28199,7 +28198,7 @@
         <v>2928</v>
       </c>
     </row>
-    <row r="472" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="12" t="s">
         <v>2488</v>
       </c>
@@ -28237,7 +28236,7 @@
         <v>2941</v>
       </c>
     </row>
-    <row r="473" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="12" t="s">
         <v>2488</v>
       </c>
@@ -28275,7 +28274,7 @@
         <v>2770</v>
       </c>
     </row>
-    <row r="474" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="12" t="s">
         <v>2488</v>
       </c>
@@ -28313,7 +28312,7 @@
         <v>2904</v>
       </c>
     </row>
-    <row r="475" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="12" t="s">
         <v>2488</v>
       </c>
@@ -28351,7 +28350,7 @@
         <v>2714</v>
       </c>
     </row>
-    <row r="476" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="12" t="s">
         <v>2488</v>
       </c>
@@ -28389,7 +28388,7 @@
         <v>2961</v>
       </c>
     </row>
-    <row r="477" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="12" t="s">
         <v>2488</v>
       </c>
@@ -28427,7 +28426,7 @@
         <v>3060</v>
       </c>
     </row>
-    <row r="478" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="12" t="s">
         <v>2488</v>
       </c>
@@ -28465,7 +28464,7 @@
         <v>2882</v>
       </c>
     </row>
-    <row r="479" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="12" t="s">
         <v>2488</v>
       </c>
@@ -28503,7 +28502,7 @@
         <v>2689</v>
       </c>
     </row>
-    <row r="480" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="12" t="s">
         <v>2488</v>
       </c>
@@ -28541,7 +28540,7 @@
         <v>2906</v>
       </c>
     </row>
-    <row r="481" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="12" t="s">
         <v>2488</v>
       </c>
@@ -28579,7 +28578,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="482" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="12" t="s">
         <v>2488</v>
       </c>
@@ -28617,7 +28616,7 @@
         <v>2911</v>
       </c>
     </row>
-    <row r="483" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="12" t="s">
         <v>2488</v>
       </c>
@@ -28655,7 +28654,7 @@
         <v>2730</v>
       </c>
     </row>
-    <row r="484" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="12" t="s">
         <v>2488</v>
       </c>
@@ -28693,7 +28692,7 @@
         <v>2825</v>
       </c>
     </row>
-    <row r="485" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="12" t="s">
         <v>2488</v>
       </c>
@@ -28731,7 +28730,7 @@
         <v>2889</v>
       </c>
     </row>
-    <row r="486" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="12" t="s">
         <v>2488</v>
       </c>
@@ -28769,7 +28768,7 @@
         <v>2962</v>
       </c>
     </row>
-    <row r="487" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="12" t="s">
         <v>2488</v>
       </c>
@@ -28807,7 +28806,7 @@
         <v>3109</v>
       </c>
     </row>
-    <row r="488" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="12" t="s">
         <v>2488</v>
       </c>
@@ -28845,7 +28844,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="489" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="12" t="s">
         <v>2488</v>
       </c>
@@ -28883,7 +28882,7 @@
         <v>2905</v>
       </c>
     </row>
-    <row r="490" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="12" t="s">
         <v>2488</v>
       </c>
@@ -28921,7 +28920,7 @@
         <v>3124</v>
       </c>
     </row>
-    <row r="491" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="12" t="s">
         <v>2488</v>
       </c>
@@ -28959,7 +28958,7 @@
         <v>2777</v>
       </c>
     </row>
-    <row r="492" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="12" t="s">
         <v>2488</v>
       </c>
@@ -28997,7 +28996,7 @@
         <v>2937</v>
       </c>
     </row>
-    <row r="493" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="12" t="s">
         <v>2488</v>
       </c>
@@ -29035,7 +29034,7 @@
         <v>2897</v>
       </c>
     </row>
-    <row r="494" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="12" t="s">
         <v>2488</v>
       </c>
@@ -29073,7 +29072,7 @@
         <v>2946</v>
       </c>
     </row>
-    <row r="495" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="12" t="s">
         <v>2488</v>
       </c>
@@ -29111,7 +29110,7 @@
         <v>3130</v>
       </c>
     </row>
-    <row r="496" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="12" t="s">
         <v>2488</v>
       </c>
@@ -29149,7 +29148,7 @@
         <v>2729</v>
       </c>
     </row>
-    <row r="497" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="12" t="s">
         <v>2488</v>
       </c>
@@ -29187,7 +29186,7 @@
         <v>2830</v>
       </c>
     </row>
-    <row r="498" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="12" t="s">
         <v>2488</v>
       </c>
@@ -29225,7 +29224,7 @@
         <v>2939</v>
       </c>
     </row>
-    <row r="499" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="12" t="s">
         <v>2488</v>
       </c>
@@ -29263,7 +29262,7 @@
         <v>2757</v>
       </c>
     </row>
-    <row r="500" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="12" t="s">
         <v>2488</v>
       </c>
@@ -29301,7 +29300,7 @@
         <v>2734</v>
       </c>
     </row>
-    <row r="501" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="12" t="s">
         <v>2488</v>
       </c>
@@ -29339,7 +29338,7 @@
         <v>2898</v>
       </c>
     </row>
-    <row r="502" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="12" t="s">
         <v>2488</v>
       </c>
@@ -29377,7 +29376,7 @@
         <v>2960</v>
       </c>
     </row>
-    <row r="503" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="12" t="s">
         <v>2488</v>
       </c>
@@ -29415,7 +29414,7 @@
         <v>2751</v>
       </c>
     </row>
-    <row r="504" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="12" t="s">
         <v>2488</v>
       </c>
@@ -29453,7 +29452,7 @@
         <v>2888</v>
       </c>
     </row>
-    <row r="505" spans="1:12" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:12" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="12" t="s">
         <v>2488</v>
       </c>
@@ -29491,7 +29490,7 @@
         <v>2828</v>
       </c>
     </row>
-    <row r="506" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="12" t="s">
         <v>2488</v>
       </c>
@@ -29529,7 +29528,7 @@
         <v>2876</v>
       </c>
     </row>
-    <row r="507" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="12" t="s">
         <v>2488</v>
       </c>
@@ -29567,7 +29566,7 @@
         <v>2827</v>
       </c>
     </row>
-    <row r="508" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="12" t="s">
         <v>2488</v>
       </c>
@@ -29605,7 +29604,7 @@
         <v>3129</v>
       </c>
     </row>
-    <row r="509" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="12" t="s">
         <v>2488</v>
       </c>
@@ -29643,7 +29642,7 @@
         <v>2932</v>
       </c>
     </row>
-    <row r="510" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="12" t="s">
         <v>2488</v>
       </c>
@@ -29681,7 +29680,7 @@
         <v>2763</v>
       </c>
     </row>
-    <row r="511" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="12" t="s">
         <v>2488</v>
       </c>
@@ -29719,7 +29718,7 @@
         <v>2891</v>
       </c>
     </row>
-    <row r="512" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="12" t="s">
         <v>2488</v>
       </c>
@@ -29757,7 +29756,7 @@
         <v>2737</v>
       </c>
     </row>
-    <row r="513" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="12" t="s">
         <v>2488</v>
       </c>
@@ -29795,7 +29794,7 @@
         <v>2965</v>
       </c>
     </row>
-    <row r="514" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="12" t="s">
         <v>2488</v>
       </c>
@@ -29833,7 +29832,7 @@
         <v>2735</v>
       </c>
     </row>
-    <row r="515" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="12" t="s">
         <v>2488</v>
       </c>
@@ -29871,7 +29870,7 @@
         <v>2921</v>
       </c>
     </row>
-    <row r="516" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="12" t="s">
         <v>2488</v>
       </c>
@@ -29909,7 +29908,7 @@
         <v>2947</v>
       </c>
     </row>
-    <row r="517" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="12" t="s">
         <v>2488</v>
       </c>
@@ -29947,7 +29946,7 @@
         <v>2776</v>
       </c>
     </row>
-    <row r="518" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="12" t="s">
         <v>2488</v>
       </c>
@@ -29985,7 +29984,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="519" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="12" t="s">
         <v>2488</v>
       </c>
@@ -30023,7 +30022,7 @@
         <v>2951</v>
       </c>
     </row>
-    <row r="520" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="12" t="s">
         <v>2488</v>
       </c>
@@ -30061,7 +30060,7 @@
         <v>2736</v>
       </c>
     </row>
-    <row r="521" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="12" t="s">
         <v>2488</v>
       </c>
@@ -30099,7 +30098,7 @@
         <v>2915</v>
       </c>
     </row>
-    <row r="522" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="12" t="s">
         <v>2488</v>
       </c>
@@ -30137,7 +30136,7 @@
         <v>2913</v>
       </c>
     </row>
-    <row r="523" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="12" t="s">
         <v>2488</v>
       </c>
@@ -30175,7 +30174,7 @@
         <v>2924</v>
       </c>
     </row>
-    <row r="524" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="12" t="s">
         <v>2488</v>
       </c>
@@ -30213,7 +30212,7 @@
         <v>3137</v>
       </c>
     </row>
-    <row r="525" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="12" t="s">
         <v>2488</v>
       </c>
@@ -30251,7 +30250,7 @@
         <v>2948</v>
       </c>
     </row>
-    <row r="526" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="12" t="s">
         <v>2488</v>
       </c>
@@ -30289,7 +30288,7 @@
         <v>2852</v>
       </c>
     </row>
-    <row r="527" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="12" t="s">
         <v>2488</v>
       </c>
@@ -30327,7 +30326,7 @@
         <v>2903</v>
       </c>
     </row>
-    <row r="528" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="12" t="s">
         <v>2488</v>
       </c>
@@ -30365,7 +30364,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="529" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="12" t="s">
         <v>2488</v>
       </c>
@@ -30403,7 +30402,7 @@
         <v>2721</v>
       </c>
     </row>
-    <row r="530" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="12" t="s">
         <v>2488</v>
       </c>
@@ -30441,7 +30440,7 @@
         <v>2863</v>
       </c>
     </row>
-    <row r="531" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="12" t="s">
         <v>2488</v>
       </c>
@@ -30479,7 +30478,7 @@
         <v>2880</v>
       </c>
     </row>
-    <row r="532" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="12" t="s">
         <v>2488</v>
       </c>
@@ -30517,7 +30516,7 @@
         <v>2869</v>
       </c>
     </row>
-    <row r="533" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="12" t="s">
         <v>2488</v>
       </c>
@@ -30555,7 +30554,7 @@
         <v>2842</v>
       </c>
     </row>
-    <row r="534" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="12" t="s">
         <v>2488</v>
       </c>
@@ -30593,7 +30592,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="535" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="12" t="s">
         <v>2488</v>
       </c>
@@ -30631,7 +30630,7 @@
         <v>2756</v>
       </c>
     </row>
-    <row r="536" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="12" t="s">
         <v>2488</v>
       </c>
@@ -30669,7 +30668,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="537" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="12" t="s">
         <v>2488</v>
       </c>
@@ -30707,7 +30706,7 @@
         <v>2750</v>
       </c>
     </row>
-    <row r="538" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="12" t="s">
         <v>2488</v>
       </c>
@@ -30745,7 +30744,7 @@
         <v>2867</v>
       </c>
     </row>
-    <row r="539" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="12" t="s">
         <v>2488</v>
       </c>
@@ -30783,7 +30782,7 @@
         <v>2873</v>
       </c>
     </row>
-    <row r="540" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="12" t="s">
         <v>2488</v>
       </c>
@@ -30821,7 +30820,7 @@
         <v>2875</v>
       </c>
     </row>
-    <row r="541" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="12" t="s">
         <v>2488</v>
       </c>
@@ -30859,7 +30858,7 @@
         <v>2715</v>
       </c>
     </row>
-    <row r="542" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="12" t="s">
         <v>2488</v>
       </c>
@@ -30897,7 +30896,7 @@
         <v>2879</v>
       </c>
     </row>
-    <row r="543" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="12" t="s">
         <v>2488</v>
       </c>
@@ -30935,7 +30934,7 @@
         <v>2865</v>
       </c>
     </row>
-    <row r="544" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="12" t="s">
         <v>2488</v>
       </c>
@@ -30973,7 +30972,7 @@
         <v>2862</v>
       </c>
     </row>
-    <row r="545" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="12" t="s">
         <v>2488</v>
       </c>
@@ -31011,7 +31010,7 @@
         <v>2743</v>
       </c>
     </row>
-    <row r="546" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="12" t="s">
         <v>2488</v>
       </c>
@@ -31049,7 +31048,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="547" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:12" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="12" t="s">
         <v>2488</v>
       </c>
@@ -31087,7 +31086,7 @@
         <v>2858</v>
       </c>
     </row>
-    <row r="548" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="12" t="s">
         <v>2488</v>
       </c>
@@ -31125,7 +31124,7 @@
         <v>2727</v>
       </c>
     </row>
-    <row r="549" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="12" t="s">
         <v>2488</v>
       </c>
@@ -31163,7 +31162,7 @@
         <v>2886</v>
       </c>
     </row>
-    <row r="550" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="12" t="s">
         <v>2488</v>
       </c>
@@ -31201,7 +31200,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="551" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="12" t="s">
         <v>2488</v>
       </c>
@@ -31239,7 +31238,7 @@
         <v>2953</v>
       </c>
     </row>
-    <row r="552" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="12" t="s">
         <v>2488</v>
       </c>
@@ -31277,7 +31276,7 @@
         <v>2964</v>
       </c>
     </row>
-    <row r="553" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="12" t="s">
         <v>2488</v>
       </c>
@@ -31315,7 +31314,7 @@
         <v>2899</v>
       </c>
     </row>
-    <row r="554" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="12" t="s">
         <v>2488</v>
       </c>
@@ -31353,7 +31352,7 @@
         <v>2938</v>
       </c>
     </row>
-    <row r="555" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="12" t="s">
         <v>2488</v>
       </c>
@@ -31391,7 +31390,7 @@
         <v>2723</v>
       </c>
     </row>
-    <row r="556" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="12" t="s">
         <v>2488</v>
       </c>
@@ -31429,7 +31428,7 @@
         <v>2952</v>
       </c>
     </row>
-    <row r="557" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="12" t="s">
         <v>2488</v>
       </c>
@@ -31467,7 +31466,7 @@
         <v>3117</v>
       </c>
     </row>
-    <row r="558" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="12" t="s">
         <v>2488</v>
       </c>
@@ -31505,7 +31504,7 @@
         <v>2778</v>
       </c>
     </row>
-    <row r="559" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="12" t="s">
         <v>2488</v>
       </c>
@@ -31543,7 +31542,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="560" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="12" t="s">
         <v>2488</v>
       </c>
@@ -31581,7 +31580,7 @@
         <v>2916</v>
       </c>
     </row>
-    <row r="561" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="12" t="s">
         <v>2488</v>
       </c>
@@ -31619,7 +31618,7 @@
         <v>2748</v>
       </c>
     </row>
-    <row r="562" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="12" t="s">
         <v>2488</v>
       </c>
@@ -31657,7 +31656,7 @@
         <v>2890</v>
       </c>
     </row>
-    <row r="563" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="12" t="s">
         <v>2488</v>
       </c>
@@ -31695,7 +31694,7 @@
         <v>2881</v>
       </c>
     </row>
-    <row r="564" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="12" t="s">
         <v>2488</v>
       </c>
@@ -31733,7 +31732,7 @@
         <v>2854</v>
       </c>
     </row>
-    <row r="565" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="12" t="s">
         <v>2488</v>
       </c>
@@ -31771,7 +31770,7 @@
         <v>2917</v>
       </c>
     </row>
-    <row r="566" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="12" t="s">
         <v>2488</v>
       </c>
@@ -31809,7 +31808,7 @@
         <v>2944</v>
       </c>
     </row>
-    <row r="567" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="12" t="s">
         <v>2488</v>
       </c>
@@ -31847,7 +31846,7 @@
         <v>3115</v>
       </c>
     </row>
-    <row r="568" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="12" t="s">
         <v>2488</v>
       </c>
@@ -31885,7 +31884,7 @@
         <v>2926</v>
       </c>
     </row>
-    <row r="569" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="12" t="s">
         <v>2488</v>
       </c>
@@ -31923,7 +31922,7 @@
         <v>2910</v>
       </c>
     </row>
-    <row r="570" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="12" t="s">
         <v>2488</v>
       </c>
@@ -31961,7 +31960,7 @@
         <v>2892</v>
       </c>
     </row>
-    <row r="571" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="12" t="s">
         <v>2488</v>
       </c>
@@ -31999,7 +31998,7 @@
         <v>2954</v>
       </c>
     </row>
-    <row r="572" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="12" t="s">
         <v>2488</v>
       </c>
@@ -32037,7 +32036,7 @@
         <v>2768</v>
       </c>
     </row>
-    <row r="573" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="12" t="s">
         <v>2488</v>
       </c>
@@ -32075,7 +32074,7 @@
         <v>2716</v>
       </c>
     </row>
-    <row r="574" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="12" t="s">
         <v>2488</v>
       </c>
@@ -32113,7 +32112,7 @@
         <v>2896</v>
       </c>
     </row>
-    <row r="575" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="12" t="s">
         <v>2488</v>
       </c>
@@ -32151,7 +32150,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="576" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="12" t="s">
         <v>2488</v>
       </c>
@@ -32189,7 +32188,7 @@
         <v>2766</v>
       </c>
     </row>
-    <row r="577" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="12" t="s">
         <v>2488</v>
       </c>
@@ -32227,7 +32226,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="578" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="12" t="s">
         <v>2488</v>
       </c>
@@ -32265,7 +32264,7 @@
         <v>2772</v>
       </c>
     </row>
-    <row r="579" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="12" t="s">
         <v>2488</v>
       </c>
@@ -32303,7 +32302,7 @@
         <v>2955</v>
       </c>
     </row>
-    <row r="580" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="12" t="s">
         <v>2488</v>
       </c>
@@ -32341,7 +32340,7 @@
         <v>2909</v>
       </c>
     </row>
-    <row r="581" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="12" t="s">
         <v>2488</v>
       </c>
@@ -32379,7 +32378,7 @@
         <v>3148</v>
       </c>
     </row>
-    <row r="582" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="12" t="s">
         <v>2488</v>
       </c>
@@ -32417,7 +32416,7 @@
         <v>2936</v>
       </c>
     </row>
-    <row r="583" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="12" t="s">
         <v>2488</v>
       </c>
@@ -32455,7 +32454,7 @@
         <v>2765</v>
       </c>
     </row>
-    <row r="584" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="12" t="s">
         <v>2488</v>
       </c>
@@ -32493,7 +32492,7 @@
         <v>2769</v>
       </c>
     </row>
-    <row r="585" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="12" t="s">
         <v>2488</v>
       </c>
@@ -32531,7 +32530,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="586" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="12" t="s">
         <v>2488</v>
       </c>
@@ -32569,7 +32568,7 @@
         <v>2883</v>
       </c>
     </row>
-    <row r="587" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="12" t="s">
         <v>2488</v>
       </c>
@@ -32607,7 +32606,7 @@
         <v>2885</v>
       </c>
     </row>
-    <row r="588" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="12" t="s">
         <v>2488</v>
       </c>
@@ -32645,7 +32644,7 @@
         <v>2739</v>
       </c>
     </row>
-    <row r="589" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="12" t="s">
         <v>2488</v>
       </c>
@@ -32683,7 +32682,7 @@
         <v>2934</v>
       </c>
     </row>
-    <row r="590" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="12" t="s">
         <v>2488</v>
       </c>
@@ -32721,7 +32720,7 @@
         <v>2967</v>
       </c>
     </row>
-    <row r="591" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="12" t="s">
         <v>2488</v>
       </c>
@@ -32759,7 +32758,7 @@
         <v>2966</v>
       </c>
     </row>
-    <row r="592" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="12" t="s">
         <v>2488</v>
       </c>
@@ -32797,7 +32796,7 @@
         <v>2771</v>
       </c>
     </row>
-    <row r="593" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="12" t="s">
         <v>2488</v>
       </c>
@@ -32835,7 +32834,7 @@
         <v>2754</v>
       </c>
     </row>
-    <row r="594" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="12" t="s">
         <v>2488</v>
       </c>
@@ -32873,7 +32872,7 @@
         <v>3065</v>
       </c>
     </row>
-    <row r="595" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="12" t="s">
         <v>2488</v>
       </c>
@@ -32911,7 +32910,7 @@
         <v>2780</v>
       </c>
     </row>
-    <row r="596" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="12" t="s">
         <v>2488</v>
       </c>
@@ -32949,7 +32948,7 @@
         <v>3116</v>
       </c>
     </row>
-    <row r="597" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="12" t="s">
         <v>2488</v>
       </c>
@@ -32987,7 +32986,7 @@
         <v>3105</v>
       </c>
     </row>
-    <row r="598" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="12" t="s">
         <v>2488</v>
       </c>
@@ -33025,7 +33024,7 @@
         <v>2846</v>
       </c>
     </row>
-    <row r="599" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="12" t="s">
         <v>2488</v>
       </c>
@@ -33063,7 +33062,7 @@
         <v>2684</v>
       </c>
     </row>
-    <row r="600" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="12" t="s">
         <v>2488</v>
       </c>
